--- a/test-results/Cointegration/WGICointegration_results.xlsx
+++ b/test-results/Cointegration/WGICointegration_results.xlsx
@@ -1,34 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caw6/Desktop/UrbanizationCauseConsequence/test-results/Cointegration/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="20040" yWindow="1060" windowWidth="18220" windowHeight="17620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="estimateVAPctPopUrban" sheetId="1" r:id="rId1"/>
     <sheet name="PctPopUrbanestimateVA" sheetId="2" r:id="rId2"/>
+    <sheet name="PctPopUrbanestimateCtrl" sheetId="3" r:id="rId6"/>
+    <sheet name="PctPopUrbanestimateGovt" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" fullCalcOnLoad="true" concurrentCalc="false"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="162">
   <si>
     <t>Country</t>
   </si>
@@ -519,8 +508,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -595,11 +584,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -865,16 +849,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +908,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -974,7 +958,7 @@
         <v>-1.101147059035491</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +1008,7 @@
         <v>0.12722350878796659</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1058,7 @@
         <v>-1.429607935420518</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1124,7 +1108,7 @@
         <v>0.90309373263417736</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1174,7 +1158,7 @@
         <v>-1.4591561388512351</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1224,7 +1208,7 @@
         <v>-1.4958067284798759</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1258,7 @@
         <v>-3.0882097251845719</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1308,7 @@
         <v>-1.271531645720849</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1374,7 +1358,7 @@
         <v>-1.9829351145380549</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1408,7 @@
         <v>-0.76688084554388514</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1474,7 +1458,7 @@
         <v>-8.9978208593227305E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1524,7 +1508,7 @@
         <v>-2.184499001425019</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1574,7 +1558,7 @@
         <v>-1.913421675901593</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1624,7 +1608,7 @@
         <v>-2.4705223297531469</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1674,7 +1658,7 @@
         <v>3.04389675185338E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1724,7 +1708,7 @@
         <v>-1.6875453238135349</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1774,7 +1758,7 @@
         <v>-1.907097565103631</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1824,7 +1808,7 @@
         <v>-1.882655635676324</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1874,7 +1858,7 @@
         <v>-0.82056191832425485</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1924,7 +1908,7 @@
         <v>-4.0098200478601447</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1974,7 +1958,7 @@
         <v>-1.196870652637863</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2024,7 +2008,7 @@
         <v>-1.1898766867555179</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2074,7 +2058,7 @@
         <v>-2.7262112544007779</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2124,7 +2108,7 @@
         <v>-1.346015155429972</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2174,7 +2158,7 @@
         <v>-1.7607988002910071</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2224,7 +2208,7 @@
         <v>-1.839555960479496</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2274,7 +2258,7 @@
         <v>-1.5360460534217599</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2324,7 +2308,7 @@
         <v>0.2199958507971852</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2374,7 +2358,7 @@
         <v>-0.68087367660016862</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2424,7 +2408,7 @@
         <v>-1.264153058711641</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2474,7 +2458,7 @@
         <v>-1.987778568702028</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2524,7 +2508,7 @@
         <v>-1.0870856688532371</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2574,7 +2558,7 @@
         <v>-0.99512327005086088</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2624,7 +2608,7 @@
         <v>-1.050401227345817</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2674,7 +2658,7 @@
         <v>0.30183363676237329</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2724,7 +2708,7 @@
         <v>-1.901339155834054</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2774,7 +2758,7 @@
         <v>-1.238648301504566</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2824,7 +2808,7 @@
         <v>-2.0982183536730621</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2874,7 +2858,7 @@
         <v>-0.92163729059082367</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2924,7 +2908,7 @@
         <v>-2.310287664649612</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2974,7 +2958,7 @@
         <v>-0.47491438788940388</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3024,7 +3008,7 @@
         <v>-2.0200567100026929</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3074,7 +3058,7 @@
         <v>-0.75580047497418856</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3124,7 +3108,7 @@
         <v>-1.478915915273749</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3174,7 +3158,7 @@
         <v>-1.8564967901019409</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3224,7 +3208,7 @@
         <v>-1.322051708664578</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3274,7 +3258,7 @@
         <v>-0.74746101689384303</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3324,7 +3308,7 @@
         <v>-1.9092674292396921</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3374,7 +3358,7 @@
         <v>-1.450740180125409</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3424,7 +3408,7 @@
         <v>-1.245555603137064</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3474,7 +3458,7 @@
         <v>-3.3540761729909838</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3524,7 +3508,7 @@
         <v>-1.778272857548856</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3574,7 +3558,7 @@
         <v>-3.1267149234820248</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3624,7 +3608,7 @@
         <v>-0.71366240063542175</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3674,7 +3658,7 @@
         <v>-1.9882213719969399</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3724,7 +3708,7 @@
         <v>-0.87699647792264301</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3774,7 +3758,7 @@
         <v>-0.82509491640772059</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3824,7 +3808,7 @@
         <v>-1.4291799309137421</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3874,7 +3858,7 @@
         <v>-0.22936688831713939</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3924,7 +3908,7 @@
         <v>-1.0650937016721569</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3974,7 +3958,7 @@
         <v>-0.71416766905842366</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4024,7 +4008,7 @@
         <v>-0.89338781994882877</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4074,7 +4058,7 @@
         <v>-0.76815363757656407</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4124,7 +4108,7 @@
         <v>-9.1955309835744903E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4174,7 +4158,7 @@
         <v>-0.76324595347532143</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4224,7 +4208,7 @@
         <v>-1.3427088376240941</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4274,7 +4258,7 @@
         <v>-1.657656223826667</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4324,7 +4308,7 @@
         <v>-2.8595182270602448</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4374,7 +4358,7 @@
         <v>-2.546089400984711</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4424,7 +4408,7 @@
         <v>-2.4811710977944932</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4474,7 +4458,7 @@
         <v>-0.58553492510942073</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4524,7 +4508,7 @@
         <v>-1.4883568679540611</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4574,7 +4558,7 @@
         <v>-1.5527917968040179</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4624,7 +4608,7 @@
         <v>-2.640856404227709</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4674,7 +4658,7 @@
         <v>-2.8955534022797389</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4724,7 +4708,7 @@
         <v>-8.8037234005971396E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4774,7 +4758,7 @@
         <v>-2.014574519515246</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4824,7 +4808,7 @@
         <v>-0.67343594883279356</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4874,7 +4858,7 @@
         <v>-2.2099565296395451</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4924,7 +4908,7 @@
         <v>-3.0741614661017338</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4974,7 +4958,7 @@
         <v>-0.27744851379229468</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5024,7 +5008,7 @@
         <v>-0.87808846938202834</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -5074,7 +5058,7 @@
         <v>-2.1309215241943278</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -5124,7 +5108,7 @@
         <v>0.63193807206000341</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -5174,7 +5158,7 @@
         <v>-1.059936962447106</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -5224,7 +5208,7 @@
         <v>-1.21790192849402</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -5274,7 +5258,7 @@
         <v>-1.151216600567377</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -5324,7 +5308,7 @@
         <v>0.37599724472847018</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -5374,7 +5358,7 @@
         <v>5.0704549669065603E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -5424,7 +5408,7 @@
         <v>-2.5836647782585458</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -5474,7 +5458,7 @@
         <v>-1.568419658490247</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -5524,7 +5508,7 @@
         <v>-0.76957187680873695</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -5574,7 +5558,7 @@
         <v>-4.9705168665594277</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -5624,7 +5608,7 @@
         <v>-1.3705566602085359</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -5674,7 +5658,7 @@
         <v>6.4198741461987702E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -5724,7 +5708,7 @@
         <v>-3.2625005611132458</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -5774,7 +5758,7 @@
         <v>-1.4748348235971349</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -5824,7 +5808,7 @@
         <v>-1.6072212433640689</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -5874,7 +5858,7 @@
         <v>0.35500277887856008</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -5924,7 +5908,7 @@
         <v>-0.45434756844294383</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -5974,7 +5958,7 @@
         <v>-1.4175771785762481</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6024,7 +6008,7 @@
         <v>-1.499655726126466</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6074,7 +6058,7 @@
         <v>-0.1986261599790396</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6124,7 +6108,7 @@
         <v>-1.087373217133309</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6174,7 +6158,7 @@
         <v>-1.472732909508232</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6224,7 +6208,7 @@
         <v>-0.73986421975003192</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6274,7 +6258,7 @@
         <v>0.57633629238718109</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6324,7 +6308,7 @@
         <v>-0.50698352755261433</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6374,7 +6358,7 @@
         <v>-1.1496245094147111</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6424,7 +6408,7 @@
         <v>-2.287603437961788</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6474,7 +6458,7 @@
         <v>-2.523572175965092</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6524,7 +6508,7 @@
         <v>-1.041762978475586</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6574,7 +6558,7 @@
         <v>-0.77518862468968164</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6624,7 +6608,7 @@
         <v>-1.6436014489023349</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6674,7 +6658,7 @@
         <v>-3.488512524210424</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6724,7 +6708,7 @@
         <v>-0.50836766431670655</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6774,7 +6758,7 @@
         <v>-0.48602371656612869</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -6824,7 +6808,7 @@
         <v>-8.8688924833288399E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6874,7 +6858,7 @@
         <v>-0.26926500197089448</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -6924,7 +6908,7 @@
         <v>-0.38000896687319979</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -6974,7 +6958,7 @@
         <v>-8.21620795888693E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -7024,7 +7008,7 @@
         <v>-2.7161414069457912</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -7074,7 +7058,7 @@
         <v>-0.73833879059418095</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -7124,7 +7108,7 @@
         <v>0.29915664627923227</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -7174,7 +7158,7 @@
         <v>-4.7133918684491256</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -7224,7 +7208,7 @@
         <v>-2.2493970176386031</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -7274,7 +7258,7 @@
         <v>-1.482082582103919</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -7324,7 +7308,7 @@
         <v>-1.2175230761900919</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -7374,7 +7358,7 @@
         <v>-1.4017915630359019</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -7424,7 +7408,7 @@
         <v>-2.205645371730268</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -7474,7 +7458,7 @@
         <v>-0.16760783807437851</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -7524,7 +7508,7 @@
         <v>-3.9163174408801269</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -7574,7 +7558,7 @@
         <v>-0.36749192645077461</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -7624,7 +7608,7 @@
         <v>-0.13019062872410739</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -7674,7 +7658,7 @@
         <v>-0.45502307052245489</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -7724,7 +7708,7 @@
         <v>-2.6218231995808239</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -7774,7 +7758,7 @@
         <v>-1.3600741364196769</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -7824,7 +7808,7 @@
         <v>-1.198113487219312</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -7874,7 +7858,7 @@
         <v>-1.5410045102205461</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -7924,7 +7908,7 @@
         <v>-2.4679147660423619</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -7974,7 +7958,7 @@
         <v>-1.4154760329498119</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -8024,7 +8008,7 @@
         <v>-0.52746521084323283</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -8074,7 +8058,7 @@
         <v>-0.40951670836533921</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -8124,7 +8108,7 @@
         <v>-2.2039254514000119</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -8174,7 +8158,7 @@
         <v>-1.350893983112051</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -8240,16 +8224,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8299,7 +8283,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8349,7 +8333,7 @@
         <v>-2.7293874036415908</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8399,7 +8383,7 @@
         <v>-0.73088604944520152</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8449,7 +8433,7 @@
         <v>-2.4263644382351819</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8499,7 +8483,7 @@
         <v>0.88300954301316115</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8549,7 +8533,7 @@
         <v>-9.5856963033690228</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8599,7 +8583,7 @@
         <v>-7.0060374713316822</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8649,7 +8633,7 @@
         <v>-6.2471941224781506</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -8699,7 +8683,7 @@
         <v>-0.77712715891340733</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -8749,7 +8733,7 @@
         <v>-2.5226588703412798</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -8799,7 +8783,7 @@
         <v>-6.6410360872307654</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8849,7 +8833,7 @@
         <v>-1.4885500375716401</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -8899,7 +8883,7 @@
         <v>-2.9402309012748962</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8949,7 +8933,7 @@
         <v>-2.836520679302089</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8999,7 +8983,7 @@
         <v>-26.523598023328919</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -9049,7 +9033,7 @@
         <v>-0.133915146012381</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9099,7 +9083,7 @@
         <v>-5.095422074201271</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -9149,7 +9133,7 @@
         <v>-0.90164568737603124</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -9199,7 +9183,7 @@
         <v>-1.654601444304592</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9249,7 +9233,7 @@
         <v>-4.5296616970135303E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9299,7 +9283,7 @@
         <v>-14.626533723260881</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9349,7 +9333,7 @@
         <v>-0.96843182878974088</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -9399,7 +9383,7 @@
         <v>-0.48223180834337009</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9449,7 +9433,7 @@
         <v>-3.5166761948798309</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9499,7 +9483,7 @@
         <v>-6.1265933192816826</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -9549,7 +9533,7 @@
         <v>-1.2653383337919679</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -9599,7 +9583,7 @@
         <v>-2.7709324935090551</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9649,7 +9633,7 @@
         <v>6.6731852814510004E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -9699,7 +9683,7 @@
         <v>-1.084002596701271</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -9749,7 +9733,7 @@
         <v>-0.92761284583794401</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -9799,7 +9783,7 @@
         <v>-1.259011128299611</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -9849,7 +9833,7 @@
         <v>-2.155633117602521</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -9899,7 +9883,7 @@
         <v>-10.330111212013311</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -9949,7 +9933,7 @@
         <v>-16.299752374266721</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -9999,7 +9983,7 @@
         <v>-9.8217794762243447</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -10049,7 +10033,7 @@
         <v>-1.5033620240501919</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -10099,7 +10083,7 @@
         <v>-19.200084958634271</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -10149,7 +10133,7 @@
         <v>-9.0519141550408602</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -10199,7 +10183,7 @@
         <v>-7.684095996560262</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -10249,7 +10233,7 @@
         <v>-1.318809195766967</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -10299,7 +10283,7 @@
         <v>-3.2281162947923812</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -10349,7 +10333,7 @@
         <v>-3.648336968335717</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -10399,7 +10383,7 @@
         <v>-2.764998144020713</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -10449,7 +10433,7 @@
         <v>-4.1586357034350252</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -10499,7 +10483,7 @@
         <v>-0.48651364472522413</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10549,7 +10533,7 @@
         <v>-1.3260710258765549</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -10599,7 +10583,7 @@
         <v>-1.641283471822212</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -10649,7 +10633,7 @@
         <v>-0.1973763254317262</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -10699,7 +10683,7 @@
         <v>-12.281751019135919</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -10749,7 +10733,7 @@
         <v>-21.32743498361118</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -10799,7 +10783,7 @@
         <v>-1.155377993890651</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -10849,7 +10833,7 @@
         <v>0.44082636856872898</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10899,7 +10883,7 @@
         <v>-1.961722676571078</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -10949,7 +10933,7 @@
         <v>-2.0285991539016468</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10999,7 +10983,7 @@
         <v>-1.8699287059290459</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -11049,7 +11033,7 @@
         <v>-9.277072563982049</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -11099,7 +11083,7 @@
         <v>-2.53952340343786</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -11149,7 +11133,7 @@
         <v>-16.866587090800842</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -11199,7 +11183,7 @@
         <v>-0.37220327175911661</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -11249,7 +11233,7 @@
         <v>-4.5818049616487846</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -11299,7 +11283,7 @@
         <v>-2.912298991504167</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -11349,7 +11333,7 @@
         <v>-1.7867354142830829</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -11399,7 +11383,7 @@
         <v>-3.84132882143768</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -11449,7 +11433,7 @@
         <v>-1.1032387910456589</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -11499,7 +11483,7 @@
         <v>-0.20891059804153861</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -11549,7 +11533,7 @@
         <v>-0.46543974068171251</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -11599,7 +11583,7 @@
         <v>0.17802947784293319</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -11649,7 +11633,7 @@
         <v>-7.1028590280724782</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -11699,7 +11683,7 @@
         <v>-5.3061071587464976</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -11749,7 +11733,7 @@
         <v>-2.140615596885854</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -11799,7 +11783,7 @@
         <v>-5.8722677397144389</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -11849,7 +11833,7 @@
         <v>-1.19318481674156</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -11899,7 +11883,7 @@
         <v>-3.153554001186178</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -11949,7 +11933,7 @@
         <v>-1.6140841258683001</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -11999,7 +11983,7 @@
         <v>-4.2459662915189096</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -12049,7 +12033,7 @@
         <v>-0.95127772810971623</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -12099,7 +12083,7 @@
         <v>-1.4504224250222819</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -12149,7 +12133,7 @@
         <v>-3.058955087449835</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -12199,7 +12183,7 @@
         <v>-2.0079744429058182</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -12249,7 +12233,7 @@
         <v>-1.6832748985564401</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -12299,7 +12283,7 @@
         <v>-5.311910361324844</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -12349,7 +12333,7 @@
         <v>-3.1190721065425961</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -12399,7 +12383,7 @@
         <v>-1.055511096880386</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -12449,7 +12433,7 @@
         <v>-4.0643742844424127</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -12499,7 +12483,7 @@
         <v>-6.0877111029049651</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -12549,7 +12533,7 @@
         <v>-2.972153521580386</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -12599,7 +12583,7 @@
         <v>-5.4228926151757531</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -12649,7 +12633,7 @@
         <v>-1.7764134474750699</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -12699,7 +12683,7 @@
         <v>-12.70410731457323</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -12749,7 +12733,7 @@
         <v>-3.6808441333410862</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -12799,7 +12783,7 @@
         <v>-0.66562106064912863</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -12849,7 +12833,7 @@
         <v>-0.82041501961545882</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -12899,7 +12883,7 @@
         <v>-18.465227497657061</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -12949,7 +12933,7 @@
         <v>-5.4164418949563604</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -12999,7 +12983,7 @@
         <v>-5.3903735336617844</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -13049,7 +13033,7 @@
         <v>-26.986181551386839</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -13099,7 +13083,7 @@
         <v>-6.6455369270265887</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -13149,7 +13133,7 @@
         <v>-4.5424954228820749</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -13199,7 +13183,7 @@
         <v>-1.6031310240172969</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -13249,7 +13233,7 @@
         <v>-1.631562503697749</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -13299,7 +13283,7 @@
         <v>-2.31017676416299</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -13349,7 +13333,7 @@
         <v>-4.8229544546718186</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -13399,7 +13383,7 @@
         <v>-0.79392692187385483</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -13449,7 +13433,7 @@
         <v>-8.4232703645111791</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -13499,7 +13483,7 @@
         <v>-3.2166162142332668</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -13549,7 +13533,7 @@
         <v>-10.25770751026548</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -13599,7 +13583,7 @@
         <v>-1.0111519422507811</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -13649,7 +13633,7 @@
         <v>-0.80816716776170983</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -13699,7 +13683,7 @@
         <v>-0.48091743670892639</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -13749,7 +13733,7 @@
         <v>-3.181122357414075</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -13799,7 +13783,7 @@
         <v>-2.4027508821044439</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -13849,7 +13833,7 @@
         <v>-1.24430944367413</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -13899,7 +13883,7 @@
         <v>-9.0875450612664305E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -13949,7 +13933,7 @@
         <v>-1.5516633890169509</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -13999,7 +13983,7 @@
         <v>-1.911065314462417</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -14049,7 +14033,7 @@
         <v>-12.68017628394459</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -14099,7 +14083,7 @@
         <v>-0.73600093371483655</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -14149,7 +14133,7 @@
         <v>-0.99963884642724965</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -14199,7 +14183,7 @@
         <v>-1.3686241848276799</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -14249,7 +14233,7 @@
         <v>-0.73883275227928857</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -14299,7 +14283,7 @@
         <v>-0.93357768252290063</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -14349,7 +14333,7 @@
         <v>0.3052229595954698</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -14399,7 +14383,7 @@
         <v>-2.0729162442105462</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -14449,7 +14433,7 @@
         <v>-1.533908791545602</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -14499,7 +14483,7 @@
         <v>-5.1871397086284903</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -14549,7 +14533,7 @@
         <v>-0.26604423360970819</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -14599,7 +14583,7 @@
         <v>-2.6057000562481489</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -14649,7 +14633,7 @@
         <v>-0.19104262578779019</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -14699,7 +14683,7 @@
         <v>-5.0321697027323822</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -14749,7 +14733,7 @@
         <v>-4.7611633670983498E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -14799,7 +14783,7 @@
         <v>-2.2267727478731518</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -14849,7 +14833,7 @@
         <v>-1.243807030174874</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -14899,7 +14883,7 @@
         <v>-5.2221132675656587</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -14949,7 +14933,7 @@
         <v>-9.0277914406287234</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -14999,7 +14983,7 @@
         <v>-0.36917926968755072</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -15049,7 +15033,7 @@
         <v>-0.3384037290736901</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -15099,7 +15083,7 @@
         <v>-3.0774589697002122</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -15149,7 +15133,7 @@
         <v>-1.468769582220754</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -15199,7 +15183,7 @@
         <v>-9.5623108772668335</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -15249,7 +15233,7 @@
         <v>-1.199206159461681</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -15299,7 +15283,7 @@
         <v>-2.50075518530784</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -15349,7 +15333,7 @@
         <v>-1.453757433847082</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -15399,7 +15383,7 @@
         <v>0.54679794439068596</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -15449,7 +15433,7 @@
         <v>-4.1291198324372118</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -15499,7 +15483,7 @@
         <v>-1.4261756417037179</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -15549,7 +15533,7 @@
         <v>-0.69780136848688945</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -15612,4 +15596,7223 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P147"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1.289161530559167</v>
+      </c>
+      <c r="L2">
+        <v>-2.5038550637299291</v>
+      </c>
+      <c r="M2">
+        <v>-2.1471181722995971</v>
+      </c>
+      <c r="N2">
+        <v>-2.0547505733263058</v>
+      </c>
+      <c r="O2">
+        <v>-2.3337023837567381</v>
+      </c>
+      <c r="P2">
+        <v>-2.3904322758374921</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-1.3370794435824951</v>
+      </c>
+      <c r="L3">
+        <v>-1.872692529125862</v>
+      </c>
+      <c r="M3">
+        <v>-2.7569537337635421</v>
+      </c>
+      <c r="N3">
+        <v>-2.430215965592124</v>
+      </c>
+      <c r="O3">
+        <v>-1.252166583809744</v>
+      </c>
+      <c r="P3">
+        <v>-0.58661920087967467</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.60849836501408794</v>
+      </c>
+      <c r="L4">
+        <v>-2.321872742882451</v>
+      </c>
+      <c r="M4">
+        <v>-3.1115517257002838</v>
+      </c>
+      <c r="N4">
+        <v>-2.5614284146638981</v>
+      </c>
+      <c r="O4">
+        <v>-3.408010086321168</v>
+      </c>
+      <c r="P4">
+        <v>-2.342498317964484</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.4009502034300359</v>
+      </c>
+      <c r="L5">
+        <v>-4.6128531283729091</v>
+      </c>
+      <c r="M5">
+        <v>-3.7545760590622241</v>
+      </c>
+      <c r="N5">
+        <v>-3.6101959998912472</v>
+      </c>
+      <c r="O5">
+        <v>-3.4556081945986139</v>
+      </c>
+      <c r="P5">
+        <v>-3.5097937726718378</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1.4712729641235529</v>
+      </c>
+      <c r="L6">
+        <v>-2.6647134386016069</v>
+      </c>
+      <c r="M6">
+        <v>-2.6990633312120109</v>
+      </c>
+      <c r="N6">
+        <v>-2.5740068534566318</v>
+      </c>
+      <c r="O6">
+        <v>-2.592702292976155</v>
+      </c>
+      <c r="P6">
+        <v>-2.1376179223085372</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.17853743467075739</v>
+      </c>
+      <c r="L7">
+        <v>-3.4322227269689698</v>
+      </c>
+      <c r="M7">
+        <v>-5.1776523514992094</v>
+      </c>
+      <c r="N7">
+        <v>-4.8334314200906574</v>
+      </c>
+      <c r="O7">
+        <v>-6.9362255583961296</v>
+      </c>
+      <c r="P7">
+        <v>-6.5987860821490329</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.63510966418904957</v>
+      </c>
+      <c r="L8">
+        <v>-6.228098881834109</v>
+      </c>
+      <c r="M8">
+        <v>-6.657112759261703</v>
+      </c>
+      <c r="N8">
+        <v>-5.7800742408138754</v>
+      </c>
+      <c r="O8">
+        <v>-5.0249919742997093</v>
+      </c>
+      <c r="P8">
+        <v>-4.8488958527564261</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-0.1701205536080477</v>
+      </c>
+      <c r="L9">
+        <v>0.21839133434109231</v>
+      </c>
+      <c r="M9">
+        <v>-0.52095664759407134</v>
+      </c>
+      <c r="N9">
+        <v>-1.5933614925773589</v>
+      </c>
+      <c r="O9">
+        <v>-2.3753025719391112</v>
+      </c>
+      <c r="P9">
+        <v>-2.222949621040835</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-0.71097529099620393</v>
+      </c>
+      <c r="L10">
+        <v>-2.55054196062654</v>
+      </c>
+      <c r="M10">
+        <v>-1.9468824229987289</v>
+      </c>
+      <c r="N10">
+        <v>-1.9129534353040749</v>
+      </c>
+      <c r="O10">
+        <v>-2.3633726323585749</v>
+      </c>
+      <c r="P10">
+        <v>-2.1951540911618461</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.59541603483326178</v>
+      </c>
+      <c r="L11">
+        <v>-27.304211721728841</v>
+      </c>
+      <c r="M11">
+        <v>-36.7204554242795</v>
+      </c>
+      <c r="N11">
+        <v>-37.14100581482144</v>
+      </c>
+      <c r="O11">
+        <v>-42.753861191110879</v>
+      </c>
+      <c r="P11">
+        <v>-48.615619557577539</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-0.2321730265565391</v>
+      </c>
+      <c r="L12">
+        <v>-2.67021383970321</v>
+      </c>
+      <c r="M12">
+        <v>-1.976578198917821</v>
+      </c>
+      <c r="N12">
+        <v>-2.0261434811376291</v>
+      </c>
+      <c r="O12">
+        <v>-2.3744304865274048</v>
+      </c>
+      <c r="P12">
+        <v>-2.6435622292757168</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>-0.44419299227452691</v>
+      </c>
+      <c r="L13">
+        <v>-1.784168589915103</v>
+      </c>
+      <c r="M13">
+        <v>-1.32209955338109</v>
+      </c>
+      <c r="N13">
+        <v>-2.388270288004144</v>
+      </c>
+      <c r="O13">
+        <v>-2.7862816394705181</v>
+      </c>
+      <c r="P13">
+        <v>-2.457731996093063</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.40438977439562168</v>
+      </c>
+      <c r="L14">
+        <v>-10.221036579539581</v>
+      </c>
+      <c r="M14">
+        <v>-9.6407991503296255</v>
+      </c>
+      <c r="N14">
+        <v>-9.1880440646126171</v>
+      </c>
+      <c r="O14">
+        <v>-8.797726707429625</v>
+      </c>
+      <c r="P14">
+        <v>-8.3151921012168799</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.5447440335988607</v>
+      </c>
+      <c r="L15">
+        <v>-13.50852985347224</v>
+      </c>
+      <c r="M15">
+        <v>-11.65465295414441</v>
+      </c>
+      <c r="N15">
+        <v>-11.16166923042641</v>
+      </c>
+      <c r="O15">
+        <v>-10.62330078124206</v>
+      </c>
+      <c r="P15">
+        <v>-10.04607731078036</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-2.409315229314128</v>
+      </c>
+      <c r="L16">
+        <v>-3.6450264157525969</v>
+      </c>
+      <c r="M16">
+        <v>-2.8114270170689442</v>
+      </c>
+      <c r="N16">
+        <v>-3.6338832472143658</v>
+      </c>
+      <c r="O16">
+        <v>-3.837607456814832</v>
+      </c>
+      <c r="P16">
+        <v>-3.199341182438364</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.71289538835725785</v>
+      </c>
+      <c r="L17">
+        <v>-52.424106628441727</v>
+      </c>
+      <c r="M17">
+        <v>-43.93563100781072</v>
+      </c>
+      <c r="N17">
+        <v>-42.933715957974982</v>
+      </c>
+      <c r="O17">
+        <v>-45.500801971481863</v>
+      </c>
+      <c r="P17">
+        <v>-45.914391531539458</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4.1540147859898067</v>
+      </c>
+      <c r="L18">
+        <v>4.0251571312496894</v>
+      </c>
+      <c r="M18">
+        <v>0.85896833684277618</v>
+      </c>
+      <c r="N18">
+        <v>-0.94595013559748864</v>
+      </c>
+      <c r="O18">
+        <v>-1.748498573611285</v>
+      </c>
+      <c r="P18">
+        <v>-1.0882297868297359</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>-1.003827321220101</v>
+      </c>
+      <c r="L19">
+        <v>-4.8553038856841164</v>
+      </c>
+      <c r="M19">
+        <v>-3.2945060536932029</v>
+      </c>
+      <c r="N19">
+        <v>-2.4996040954478231</v>
+      </c>
+      <c r="O19">
+        <v>-3.6926046027504391</v>
+      </c>
+      <c r="P19">
+        <v>-2.667554649810385</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.073942269257595505</v>
+      </c>
+      <c r="L20">
+        <v>-2.964812259029868</v>
+      </c>
+      <c r="M20">
+        <v>-2.951397574601796</v>
+      </c>
+      <c r="N20">
+        <v>-4.6072475831388138</v>
+      </c>
+      <c r="O20">
+        <v>-5.8191931404186574</v>
+      </c>
+      <c r="P20">
+        <v>-6.6196187321309834</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.53065343969239231</v>
+      </c>
+      <c r="L21">
+        <v>-16.024611973951949</v>
+      </c>
+      <c r="M21">
+        <v>-18.077492833024369</v>
+      </c>
+      <c r="N21">
+        <v>-18.421404819706542</v>
+      </c>
+      <c r="O21">
+        <v>-18.131659758065961</v>
+      </c>
+      <c r="P21">
+        <v>-16.720342339608649</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>-0.64520874073583756</v>
+      </c>
+      <c r="L22">
+        <v>-0.96144590368606775</v>
+      </c>
+      <c r="M22">
+        <v>-0.87763711081863971</v>
+      </c>
+      <c r="N22">
+        <v>-0.97501106289398309</v>
+      </c>
+      <c r="O22">
+        <v>-1.1160417158632101</v>
+      </c>
+      <c r="P22">
+        <v>-1.315666725347318</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.77945029243403507</v>
+      </c>
+      <c r="L23">
+        <v>-6.8805922556879651</v>
+      </c>
+      <c r="M23">
+        <v>-7.9399177796580869</v>
+      </c>
+      <c r="N23">
+        <v>-8.4709033361822321</v>
+      </c>
+      <c r="O23">
+        <v>-8.9264781433773077</v>
+      </c>
+      <c r="P23">
+        <v>-8.4317195234652864</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.49568620322251472</v>
+      </c>
+      <c r="L24">
+        <v>-3.0535837152860879</v>
+      </c>
+      <c r="M24">
+        <v>-2.661442728264575</v>
+      </c>
+      <c r="N24">
+        <v>-1.521640211839115</v>
+      </c>
+      <c r="O24">
+        <v>-1.9355942577011609</v>
+      </c>
+      <c r="P24">
+        <v>-2.5505570324536802</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.60172650794249039</v>
+      </c>
+      <c r="L25">
+        <v>-15.11698269385435</v>
+      </c>
+      <c r="M25">
+        <v>-12.339604961567209</v>
+      </c>
+      <c r="N25">
+        <v>-14.98271200810834</v>
+      </c>
+      <c r="O25">
+        <v>-14.956080924452509</v>
+      </c>
+      <c r="P25">
+        <v>-14.12318779208513</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>-0.79555121904231918</v>
+      </c>
+      <c r="L26">
+        <v>-1.941241593486623</v>
+      </c>
+      <c r="M26">
+        <v>-2.7233822950097588</v>
+      </c>
+      <c r="N26">
+        <v>-2.59512866035851</v>
+      </c>
+      <c r="O26">
+        <v>-6.0956530029618818</v>
+      </c>
+      <c r="P26">
+        <v>-4.6244186872958153</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1.209571806814562</v>
+      </c>
+      <c r="L27">
+        <v>-1.9623655978847829</v>
+      </c>
+      <c r="M27">
+        <v>-0.19880323125493779</v>
+      </c>
+      <c r="N27">
+        <v>0.19209464457900191</v>
+      </c>
+      <c r="O27">
+        <v>-0.18273860410237011</v>
+      </c>
+      <c r="P27">
+        <v>-0.66283377185277792</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.65275988385396522</v>
+      </c>
+      <c r="L28">
+        <v>-1.0255627874216</v>
+      </c>
+      <c r="M28">
+        <v>-0.71629464147810773</v>
+      </c>
+      <c r="N28">
+        <v>-0.55118006072515757</v>
+      </c>
+      <c r="O28">
+        <v>-0.8259548166741868</v>
+      </c>
+      <c r="P28">
+        <v>0.51655863920206269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.6892073253943759</v>
+      </c>
+      <c r="L29">
+        <v>-36.645172992825479</v>
+      </c>
+      <c r="M29">
+        <v>-36.040133835611194</v>
+      </c>
+      <c r="N29">
+        <v>-37.30948629794964</v>
+      </c>
+      <c r="O29">
+        <v>-40.736026127297052</v>
+      </c>
+      <c r="P29">
+        <v>-40.187103299861569</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.40441633935826038</v>
+      </c>
+      <c r="L30">
+        <v>-11.665310178693179</v>
+      </c>
+      <c r="M30">
+        <v>-9.4235269646016349</v>
+      </c>
+      <c r="N30">
+        <v>-8.5350243447720295</v>
+      </c>
+      <c r="O30">
+        <v>-8.2756355287384125</v>
+      </c>
+      <c r="P30">
+        <v>-7.2646232074441794</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.65987870119422276</v>
+      </c>
+      <c r="L31">
+        <v>-157.73449239090749</v>
+      </c>
+      <c r="M31">
+        <v>-180.2712597259893</v>
+      </c>
+      <c r="N31">
+        <v>-182.5721642922453</v>
+      </c>
+      <c r="O31">
+        <v>-266.69741037916089</v>
+      </c>
+      <c r="P31">
+        <v>-255.6635189495652</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>-1.142393042897454</v>
+      </c>
+      <c r="L32">
+        <v>-2.137068542146261</v>
+      </c>
+      <c r="M32">
+        <v>-1.4318714756943269</v>
+      </c>
+      <c r="N32">
+        <v>-1.313555177621625</v>
+      </c>
+      <c r="O32">
+        <v>-1.2282274449002051</v>
+      </c>
+      <c r="P32">
+        <v>-0.73239160740263998</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.3929771581971197</v>
+      </c>
+      <c r="L33">
+        <v>-2.083848551230413</v>
+      </c>
+      <c r="M33">
+        <v>-1.7430785549912431</v>
+      </c>
+      <c r="N33">
+        <v>-2.05873807628929</v>
+      </c>
+      <c r="O33">
+        <v>-3.0582550244812068</v>
+      </c>
+      <c r="P33">
+        <v>-3.5881864793051821</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.58066998447172646</v>
+      </c>
+      <c r="L34">
+        <v>-31.38800603924793</v>
+      </c>
+      <c r="M34">
+        <v>-26.89458335287221</v>
+      </c>
+      <c r="N34">
+        <v>-25.861627832326938</v>
+      </c>
+      <c r="O34">
+        <v>-24.77050880453271</v>
+      </c>
+      <c r="P34">
+        <v>-23.47525692616551</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.63716504230017257</v>
+      </c>
+      <c r="L35">
+        <v>-8.8047495895063292</v>
+      </c>
+      <c r="M35">
+        <v>-10.716306240240151</v>
+      </c>
+      <c r="N35">
+        <v>-9.5390809343798786</v>
+      </c>
+      <c r="O35">
+        <v>-8.8619212745541471</v>
+      </c>
+      <c r="P35">
+        <v>-7.5534191614682564</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>-0.32657400035193701</v>
+      </c>
+      <c r="L36">
+        <v>-2.2080666605795352</v>
+      </c>
+      <c r="M36">
+        <v>-1.5727157628864039</v>
+      </c>
+      <c r="N36">
+        <v>-1.7709532186158761</v>
+      </c>
+      <c r="O36">
+        <v>-2.0129999014200868</v>
+      </c>
+      <c r="P36">
+        <v>-1.9542657185199901</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>-1.004994796709896</v>
+      </c>
+      <c r="L37">
+        <v>-1.8555841534854749</v>
+      </c>
+      <c r="M37">
+        <v>-2.0817183697857149</v>
+      </c>
+      <c r="N37">
+        <v>-2.6843051256927408</v>
+      </c>
+      <c r="O37">
+        <v>-4.1745891909788941</v>
+      </c>
+      <c r="P37">
+        <v>-3.237572205546313</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.36319639132612802</v>
+      </c>
+      <c r="L38">
+        <v>-2.815686678538301</v>
+      </c>
+      <c r="M38">
+        <v>-2.105608445711888</v>
+      </c>
+      <c r="N38">
+        <v>-2.164412073448772</v>
+      </c>
+      <c r="O38">
+        <v>-1.9565862663223601</v>
+      </c>
+      <c r="P38">
+        <v>-1.978723544364053</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>-0.35315540226246978</v>
+      </c>
+      <c r="L39">
+        <v>-6.0668737596864588</v>
+      </c>
+      <c r="M39">
+        <v>-4.6794688955471377</v>
+      </c>
+      <c r="N39">
+        <v>-4.5463766724352048</v>
+      </c>
+      <c r="O39">
+        <v>-5.1101007308574591</v>
+      </c>
+      <c r="P39">
+        <v>-4.7125634268069216</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.45375434321804398</v>
+      </c>
+      <c r="L40">
+        <v>-1.6239143137552849</v>
+      </c>
+      <c r="M40">
+        <v>-1.3218345373461671</v>
+      </c>
+      <c r="N40">
+        <v>-0.62481592021995547</v>
+      </c>
+      <c r="O40">
+        <v>-0.9638672091491769</v>
+      </c>
+      <c r="P40">
+        <v>-2.0097347151916418</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>-0.66330244665503901</v>
+      </c>
+      <c r="L41">
+        <v>-2.224160640935442</v>
+      </c>
+      <c r="M41">
+        <v>-1.778336736124893</v>
+      </c>
+      <c r="N41">
+        <v>-0.90910013507122245</v>
+      </c>
+      <c r="O41">
+        <v>-0.97711484039854868</v>
+      </c>
+      <c r="P41">
+        <v>-0.92289981002631172</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>-1.385160169905012</v>
+      </c>
+      <c r="L42">
+        <v>-2.9991499050997441</v>
+      </c>
+      <c r="M42">
+        <v>-3.224691847461262</v>
+      </c>
+      <c r="N42">
+        <v>-2.8979594670694411</v>
+      </c>
+      <c r="O42">
+        <v>-3.787219463738936</v>
+      </c>
+      <c r="P42">
+        <v>-3.619545036319789</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>-2.582929764116118</v>
+      </c>
+      <c r="L43">
+        <v>-2.673296403743223</v>
+      </c>
+      <c r="M43">
+        <v>-2.6641973477012191</v>
+      </c>
+      <c r="N43">
+        <v>-1.940924062367317</v>
+      </c>
+      <c r="O43">
+        <v>-2.1913963099006288</v>
+      </c>
+      <c r="P43">
+        <v>-2.1094092729207081</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>-0.48968464068073908</v>
+      </c>
+      <c r="L44">
+        <v>-1.9153584397462931</v>
+      </c>
+      <c r="M44">
+        <v>-1.6030046000798259</v>
+      </c>
+      <c r="N44">
+        <v>-0.22876125006409581</v>
+      </c>
+      <c r="O44">
+        <v>-0.26089749886439478</v>
+      </c>
+      <c r="P44">
+        <v>0.62882879408894288</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>-0.089443555209870698</v>
+      </c>
+      <c r="L45">
+        <v>-0.88878187858195057</v>
+      </c>
+      <c r="M45">
+        <v>-1.0868495700378351</v>
+      </c>
+      <c r="N45">
+        <v>-0.90310787334450038</v>
+      </c>
+      <c r="O45">
+        <v>-0.9981535046472173</v>
+      </c>
+      <c r="P45">
+        <v>-1.166956286049281</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.097456264913835799</v>
+      </c>
+      <c r="L46">
+        <v>-0.14046861762431431</v>
+      </c>
+      <c r="M46">
+        <v>-0.34037779841936128</v>
+      </c>
+      <c r="N46">
+        <v>-0.2303248567804522</v>
+      </c>
+      <c r="O46">
+        <v>-0.97402990564326597</v>
+      </c>
+      <c r="P46">
+        <v>-0.76806082651939755</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>-0.55916473957692159</v>
+      </c>
+      <c r="L47">
+        <v>-0.96701566396464256</v>
+      </c>
+      <c r="M47">
+        <v>-1.1431731574049571</v>
+      </c>
+      <c r="N47">
+        <v>-1.405035037192057</v>
+      </c>
+      <c r="O47">
+        <v>-1.5124989898612591</v>
+      </c>
+      <c r="P47">
+        <v>-0.98165963420311475</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>-0.069754817353783</v>
+      </c>
+      <c r="L48">
+        <v>-1.619251191597719</v>
+      </c>
+      <c r="M48">
+        <v>-1.3144233156104981</v>
+      </c>
+      <c r="N48">
+        <v>-1.2755123551487519</v>
+      </c>
+      <c r="O48">
+        <v>-1.383044900605906</v>
+      </c>
+      <c r="P48">
+        <v>-1.5010093292919371</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>-0.25523942275630002</v>
+      </c>
+      <c r="L49">
+        <v>-1.9833077542345521</v>
+      </c>
+      <c r="M49">
+        <v>-1.7096898537631591</v>
+      </c>
+      <c r="N49">
+        <v>-1.7480927981724199</v>
+      </c>
+      <c r="O49">
+        <v>-2.3090774533808589</v>
+      </c>
+      <c r="P49">
+        <v>-2.674652295435255</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.83326489974395679</v>
+      </c>
+      <c r="L50">
+        <v>-8.5446993530698148</v>
+      </c>
+      <c r="M50">
+        <v>-6.6532022138836053</v>
+      </c>
+      <c r="N50">
+        <v>-5.6806874939389012</v>
+      </c>
+      <c r="O50">
+        <v>-5.7186581804495784</v>
+      </c>
+      <c r="P50">
+        <v>-5.56497382310764</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0.59316916560868338</v>
+      </c>
+      <c r="L51">
+        <v>-9.4969226130901898</v>
+      </c>
+      <c r="M51">
+        <v>-8.2661212742010246</v>
+      </c>
+      <c r="N51">
+        <v>-8.7012417201110743</v>
+      </c>
+      <c r="O51">
+        <v>-9.3864838374653914</v>
+      </c>
+      <c r="P51">
+        <v>-9.3964356068771675</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0.85612122909204602</v>
+      </c>
+      <c r="L52">
+        <v>1.4275929779868559</v>
+      </c>
+      <c r="M52">
+        <v>1.498277400832138</v>
+      </c>
+      <c r="N52">
+        <v>0.8206987186534993</v>
+      </c>
+      <c r="O52">
+        <v>1.412456457691676</v>
+      </c>
+      <c r="P52">
+        <v>0.66625157630230458</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.95960419800391483</v>
+      </c>
+      <c r="L53">
+        <v>-0.21672685979160519</v>
+      </c>
+      <c r="M53">
+        <v>-0.62642304016166583</v>
+      </c>
+      <c r="N53">
+        <v>-0.63669674652319985</v>
+      </c>
+      <c r="O53">
+        <v>-0.42369442036463673</v>
+      </c>
+      <c r="P53">
+        <v>-1.1703016421969219</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0.53389977572800706</v>
+      </c>
+      <c r="L54">
+        <v>-3.9194759829263188</v>
+      </c>
+      <c r="M54">
+        <v>-2.8867596053565259</v>
+      </c>
+      <c r="N54">
+        <v>-2.444144967168616</v>
+      </c>
+      <c r="O54">
+        <v>-2.2317801101131591</v>
+      </c>
+      <c r="P54">
+        <v>-3.7944027638576729</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>-0.5297607474778715</v>
+      </c>
+      <c r="L55">
+        <v>-1.0288579288630439</v>
+      </c>
+      <c r="M55">
+        <v>-1.6403057051605801</v>
+      </c>
+      <c r="N55">
+        <v>-1.3998898258126511</v>
+      </c>
+      <c r="O55">
+        <v>-2.3690366302557351</v>
+      </c>
+      <c r="P55">
+        <v>-1.7580959355675729</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>-0.15609934059657041</v>
+      </c>
+      <c r="L56">
+        <v>-4.0121096438474204</v>
+      </c>
+      <c r="M56">
+        <v>-2.4565974280045482</v>
+      </c>
+      <c r="N56">
+        <v>-3.255511842088529</v>
+      </c>
+      <c r="O56">
+        <v>-2.624432587221865</v>
+      </c>
+      <c r="P56">
+        <v>-1.689394738367199</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0.090286751277741106</v>
+      </c>
+      <c r="L57">
+        <v>-0.99062030696356929</v>
+      </c>
+      <c r="M57">
+        <v>-0.83019252101209307</v>
+      </c>
+      <c r="N57">
+        <v>-0.39223851628357059</v>
+      </c>
+      <c r="O57">
+        <v>-1.181024232544142</v>
+      </c>
+      <c r="P57">
+        <v>-0.87907196033572443</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>-0.33066649963218608</v>
+      </c>
+      <c r="L58">
+        <v>-2.2883867176643169</v>
+      </c>
+      <c r="M58">
+        <v>-2.129933858067528</v>
+      </c>
+      <c r="N58">
+        <v>-3.146708222013475</v>
+      </c>
+      <c r="O58">
+        <v>-4.2517118829718283</v>
+      </c>
+      <c r="P58">
+        <v>-4.0140223361693277</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1.2648945538107661</v>
+      </c>
+      <c r="L59">
+        <v>1.288760541073821</v>
+      </c>
+      <c r="M59">
+        <v>1.2393087841904531</v>
+      </c>
+      <c r="N59">
+        <v>0.0070838787714959002</v>
+      </c>
+      <c r="O59">
+        <v>-0.41299740576510879</v>
+      </c>
+      <c r="P59">
+        <v>-1.208014035790522</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1.2031477256333349</v>
+      </c>
+      <c r="L60">
+        <v>-3.7386335239524611</v>
+      </c>
+      <c r="M60">
+        <v>-3.234875959755831</v>
+      </c>
+      <c r="N60">
+        <v>-4.1580396383175477</v>
+      </c>
+      <c r="O60">
+        <v>-4.1550051316500873</v>
+      </c>
+      <c r="P60">
+        <v>-4.4123071066637678</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>-0.23397948240033861</v>
+      </c>
+      <c r="L61">
+        <v>-3.98283367643754</v>
+      </c>
+      <c r="M61">
+        <v>-3.7034382869417</v>
+      </c>
+      <c r="N61">
+        <v>-3.9462198478323351</v>
+      </c>
+      <c r="O61">
+        <v>-3.8359469689716592</v>
+      </c>
+      <c r="P61">
+        <v>-3.867837761962162</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>-2.4232759036845479</v>
+      </c>
+      <c r="L62">
+        <v>-2.7983682778123851</v>
+      </c>
+      <c r="M62">
+        <v>-2.6704626605602111</v>
+      </c>
+      <c r="N62">
+        <v>-3.7043801768022711</v>
+      </c>
+      <c r="O62">
+        <v>-3.136144508238385</v>
+      </c>
+      <c r="P62">
+        <v>-2.8707514214710699</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0.83991289894467891</v>
+      </c>
+      <c r="L63">
+        <v>-9.3889062370401124</v>
+      </c>
+      <c r="M63">
+        <v>-10.31712832848036</v>
+      </c>
+      <c r="N63">
+        <v>-11.11525018540865</v>
+      </c>
+      <c r="O63">
+        <v>-16.664913881378041</v>
+      </c>
+      <c r="P63">
+        <v>-16.856992596862469</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>-0.3486515433399201</v>
+      </c>
+      <c r="L64">
+        <v>-2.983796328936716</v>
+      </c>
+      <c r="M64">
+        <v>-2.446833459157201</v>
+      </c>
+      <c r="N64">
+        <v>-3.3602768251583019</v>
+      </c>
+      <c r="O64">
+        <v>-3.349747977088684</v>
+      </c>
+      <c r="P64">
+        <v>-2.4937236457812162</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0.1590834385286467</v>
+      </c>
+      <c r="L65">
+        <v>-2.382348083213834</v>
+      </c>
+      <c r="M65">
+        <v>-3.071485039587722</v>
+      </c>
+      <c r="N65">
+        <v>-3.045304721982637</v>
+      </c>
+      <c r="O65">
+        <v>-3.2836110722895291</v>
+      </c>
+      <c r="P65">
+        <v>-3.9721329702295609</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1.245517108860827</v>
+      </c>
+      <c r="L66">
+        <v>-3.0951838531212159</v>
+      </c>
+      <c r="M66">
+        <v>-2.5082952994401611</v>
+      </c>
+      <c r="N66">
+        <v>-3.5576238349556841</v>
+      </c>
+      <c r="O66">
+        <v>-5.6590352103737942</v>
+      </c>
+      <c r="P66">
+        <v>-5.6598579646956386</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0.33861330212059709</v>
+      </c>
+      <c r="L67">
+        <v>-3.69250761967416</v>
+      </c>
+      <c r="M67">
+        <v>-2.5329637030774199</v>
+      </c>
+      <c r="N67">
+        <v>-2.4113170591820539</v>
+      </c>
+      <c r="O67">
+        <v>-2.4659588150259668</v>
+      </c>
+      <c r="P67">
+        <v>-2.263560718034463</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0.69102974313499954</v>
+      </c>
+      <c r="L68">
+        <v>-13.313130390721581</v>
+      </c>
+      <c r="M68">
+        <v>-11.88642915215646</v>
+      </c>
+      <c r="N68">
+        <v>-11.409104821273401</v>
+      </c>
+      <c r="O68">
+        <v>-11.140745379472479</v>
+      </c>
+      <c r="P68">
+        <v>-10.959603983588821</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>-0.5378265314221613</v>
+      </c>
+      <c r="L69">
+        <v>-1.3725934619246809</v>
+      </c>
+      <c r="M69">
+        <v>-1.2339190210523721</v>
+      </c>
+      <c r="N69">
+        <v>-0.55641773279499707</v>
+      </c>
+      <c r="O69">
+        <v>0.18681496762107019</v>
+      </c>
+      <c r="P69">
+        <v>0.79237668111282811</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>-1.2313392046743961</v>
+      </c>
+      <c r="L70">
+        <v>-1.357957533157669</v>
+      </c>
+      <c r="M70">
+        <v>-1.2472047180075769</v>
+      </c>
+      <c r="N70">
+        <v>-0.67963414971273717</v>
+      </c>
+      <c r="O70">
+        <v>-1.107922717916185</v>
+      </c>
+      <c r="P70">
+        <v>-0.6372911161043241</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>-1.604287827220841</v>
+      </c>
+      <c r="L71">
+        <v>-1.6204433917576779</v>
+      </c>
+      <c r="M71">
+        <v>-1.8499429726332119</v>
+      </c>
+      <c r="N71">
+        <v>-1.042665001301289</v>
+      </c>
+      <c r="O71">
+        <v>-1.006106863514473</v>
+      </c>
+      <c r="P71">
+        <v>-1.1478226481458429</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0.20752374697636841</v>
+      </c>
+      <c r="L72">
+        <v>-5.9053294496245741</v>
+      </c>
+      <c r="M72">
+        <v>-5.9294254569910514</v>
+      </c>
+      <c r="N72">
+        <v>-5.458965666279342</v>
+      </c>
+      <c r="O72">
+        <v>-5.819134146290013</v>
+      </c>
+      <c r="P72">
+        <v>-5.3069136301517998</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>-1.2306136905941429</v>
+      </c>
+      <c r="L73">
+        <v>-2.3777924355281308</v>
+      </c>
+      <c r="M73">
+        <v>-2.0754660040667878</v>
+      </c>
+      <c r="N73">
+        <v>-2.2067835955134139</v>
+      </c>
+      <c r="O73">
+        <v>-3.112601328033568</v>
+      </c>
+      <c r="P73">
+        <v>-2.7891958194228739</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0.34575334828008109</v>
+      </c>
+      <c r="L74">
+        <v>-10.27101903854876</v>
+      </c>
+      <c r="M74">
+        <v>-8.1401648453199247</v>
+      </c>
+      <c r="N74">
+        <v>-7.25007042149086</v>
+      </c>
+      <c r="O74">
+        <v>-6.9445435073745632</v>
+      </c>
+      <c r="P74">
+        <v>-6.6078542056835081</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>-2.75579580659651</v>
+      </c>
+      <c r="L75">
+        <v>-6.6298412815082477</v>
+      </c>
+      <c r="M75">
+        <v>-3.481652411090935</v>
+      </c>
+      <c r="N75">
+        <v>-3.146559958292916</v>
+      </c>
+      <c r="O75">
+        <v>-3.415026046464205</v>
+      </c>
+      <c r="P75">
+        <v>-3.0214976724121638</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0.30284099374660078</v>
+      </c>
+      <c r="L76">
+        <v>0.0978223888209903</v>
+      </c>
+      <c r="M76">
+        <v>0.13249524492329459</v>
+      </c>
+      <c r="N76">
+        <v>-0.061333960050022798</v>
+      </c>
+      <c r="O76">
+        <v>-0.34093847369165181</v>
+      </c>
+      <c r="P76">
+        <v>-0.24904654114480859</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0.53096959434273472</v>
+      </c>
+      <c r="L77">
+        <v>-8.1260861556470054</v>
+      </c>
+      <c r="M77">
+        <v>-6.2076086592549462</v>
+      </c>
+      <c r="N77">
+        <v>-5.3855244626603467</v>
+      </c>
+      <c r="O77">
+        <v>-4.9172235103537503</v>
+      </c>
+      <c r="P77">
+        <v>-4.1522415186063526</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>-0.70258226742821572</v>
+      </c>
+      <c r="L78">
+        <v>-1.367006005462664</v>
+      </c>
+      <c r="M78">
+        <v>-1.65657486022129</v>
+      </c>
+      <c r="N78">
+        <v>-1.966235642895531</v>
+      </c>
+      <c r="O78">
+        <v>-2.2093401696135908</v>
+      </c>
+      <c r="P78">
+        <v>-1.2880620204941009</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>-1.2735399339094009</v>
+      </c>
+      <c r="L79">
+        <v>-1.844782168362944</v>
+      </c>
+      <c r="M79">
+        <v>-1.261278303822063</v>
+      </c>
+      <c r="N79">
+        <v>-1.46911248491743</v>
+      </c>
+      <c r="O79">
+        <v>-1.113145220789812</v>
+      </c>
+      <c r="P79">
+        <v>-1.4906501055493679</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>-0.98492726061569535</v>
+      </c>
+      <c r="L80">
+        <v>-1.627332958652155</v>
+      </c>
+      <c r="M80">
+        <v>-1.7428694567611429</v>
+      </c>
+      <c r="N80">
+        <v>-0.95493025110925311</v>
+      </c>
+      <c r="O80">
+        <v>-0.8723635546330345</v>
+      </c>
+      <c r="P80">
+        <v>-0.65803434632654878</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>-1.9056695320392669</v>
+      </c>
+      <c r="L81">
+        <v>-2.2949648006282741</v>
+      </c>
+      <c r="M81">
+        <v>-1.907025622808628</v>
+      </c>
+      <c r="N81">
+        <v>-1.1169542598133679</v>
+      </c>
+      <c r="O81">
+        <v>-0.87748666722507929</v>
+      </c>
+      <c r="P81">
+        <v>-1.612842834917896</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>-0.24908532753004209</v>
+      </c>
+      <c r="L82">
+        <v>-0.50299430131110856</v>
+      </c>
+      <c r="M82">
+        <v>-0.53332954711979064</v>
+      </c>
+      <c r="N82">
+        <v>-0.36587613873003461</v>
+      </c>
+      <c r="O82">
+        <v>-0.38440409248028962</v>
+      </c>
+      <c r="P82">
+        <v>-0.389722636791479</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>-0.80765320401235219</v>
+      </c>
+      <c r="L83">
+        <v>-0.17657416723739019</v>
+      </c>
+      <c r="M83">
+        <v>-0.16166376724475379</v>
+      </c>
+      <c r="N83">
+        <v>0.022949999295549101</v>
+      </c>
+      <c r="O83">
+        <v>-0.11737367910456251</v>
+      </c>
+      <c r="P83">
+        <v>-0.22011959007481591</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>-0.067680051303576294</v>
+      </c>
+      <c r="L84">
+        <v>-1.806700164942838</v>
+      </c>
+      <c r="M84">
+        <v>-1.4375319331279539</v>
+      </c>
+      <c r="N84">
+        <v>-1.883935551557846</v>
+      </c>
+      <c r="O84">
+        <v>-2.0859497510513538</v>
+      </c>
+      <c r="P84">
+        <v>-1.7913460146362019</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>-0.21582823945941659</v>
+      </c>
+      <c r="L85">
+        <v>-4.9855353252253236</v>
+      </c>
+      <c r="M85">
+        <v>-5.5615755935935631</v>
+      </c>
+      <c r="N85">
+        <v>-5.2983816568370203</v>
+      </c>
+      <c r="O85">
+        <v>-5.3338643523265921</v>
+      </c>
+      <c r="P85">
+        <v>-5.0836524946058086</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>-0.20415869572378731</v>
+      </c>
+      <c r="L86">
+        <v>-4.1536916078891011</v>
+      </c>
+      <c r="M86">
+        <v>-3.1469928193675738</v>
+      </c>
+      <c r="N86">
+        <v>-2.746033856105178</v>
+      </c>
+      <c r="O86">
+        <v>-2.4518157333650672</v>
+      </c>
+      <c r="P86">
+        <v>-2.688479527335025</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0.1623462756078127</v>
+      </c>
+      <c r="L87">
+        <v>-3.3066508007371622</v>
+      </c>
+      <c r="M87">
+        <v>-2.4677527395389189</v>
+      </c>
+      <c r="N87">
+        <v>-2.820977741869596</v>
+      </c>
+      <c r="O87">
+        <v>-3.0856582043420619</v>
+      </c>
+      <c r="P87">
+        <v>-3.426949386804075</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>-1.5571086343238489</v>
+      </c>
+      <c r="L88">
+        <v>-2.0895935433368109</v>
+      </c>
+      <c r="M88">
+        <v>-1.726958279749526</v>
+      </c>
+      <c r="N88">
+        <v>-2.796733525384993</v>
+      </c>
+      <c r="O88">
+        <v>-2.6463466514082779</v>
+      </c>
+      <c r="P88">
+        <v>-3.2627414424952281</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0.59152707674871219</v>
+      </c>
+      <c r="L89">
+        <v>-2.2894221744375551</v>
+      </c>
+      <c r="M89">
+        <v>-1.955817455967291</v>
+      </c>
+      <c r="N89">
+        <v>-3.969433056794645</v>
+      </c>
+      <c r="O89">
+        <v>-4.5231207240747073</v>
+      </c>
+      <c r="P89">
+        <v>-3.9972617617532191</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>-0.78099093222314664</v>
+      </c>
+      <c r="L90">
+        <v>-2.8950464840976151</v>
+      </c>
+      <c r="M90">
+        <v>-2.2401311992618291</v>
+      </c>
+      <c r="N90">
+        <v>-4.0930243047880808</v>
+      </c>
+      <c r="O90">
+        <v>-3.586310779981523</v>
+      </c>
+      <c r="P90">
+        <v>-3.463763195550738</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0.48133812979804469</v>
+      </c>
+      <c r="L91">
+        <v>-1.2513110971501971</v>
+      </c>
+      <c r="M91">
+        <v>-1.472116371881343</v>
+      </c>
+      <c r="N91">
+        <v>-1.421393446650481</v>
+      </c>
+      <c r="O91">
+        <v>-0.86389693666283984</v>
+      </c>
+      <c r="P91">
+        <v>-0.52064061541585782</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>-0.15286791279269291</v>
+      </c>
+      <c r="L92">
+        <v>-1.146006371398077</v>
+      </c>
+      <c r="M92">
+        <v>-0.82300023414450807</v>
+      </c>
+      <c r="N92">
+        <v>-0.1219804678147504</v>
+      </c>
+      <c r="O92">
+        <v>-0.43277040901006691</v>
+      </c>
+      <c r="P92">
+        <v>-0.14736479312044001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>-0.75530952843955901</v>
+      </c>
+      <c r="L93">
+        <v>-2.1006721265520629</v>
+      </c>
+      <c r="M93">
+        <v>-2.9125457183655681</v>
+      </c>
+      <c r="N93">
+        <v>-3.3571877486778678</v>
+      </c>
+      <c r="O93">
+        <v>-4.6199513226949698</v>
+      </c>
+      <c r="P93">
+        <v>-5.2509710055325014</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0.14950492776714139</v>
+      </c>
+      <c r="L94">
+        <v>-7.1472613123465196</v>
+      </c>
+      <c r="M94">
+        <v>-5.4935687928219377</v>
+      </c>
+      <c r="N94">
+        <v>-5.8699686464617944</v>
+      </c>
+      <c r="O94">
+        <v>-6.2604646915420572</v>
+      </c>
+      <c r="P94">
+        <v>-6.047295061662731</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>-0.17023803020834749</v>
+      </c>
+      <c r="L95">
+        <v>-5.3790938467706217</v>
+      </c>
+      <c r="M95">
+        <v>-3.845684210816799</v>
+      </c>
+      <c r="N95">
+        <v>-3.8003535304527398</v>
+      </c>
+      <c r="O95">
+        <v>-3.502970368565316</v>
+      </c>
+      <c r="P95">
+        <v>-3.3943737774490299</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>-0.28912666592335168</v>
+      </c>
+      <c r="L96">
+        <v>-2.2057241893406241</v>
+      </c>
+      <c r="M96">
+        <v>-1.615854728942417</v>
+      </c>
+      <c r="N96">
+        <v>-1.1381403442851381</v>
+      </c>
+      <c r="O96">
+        <v>-0.72481848434404872</v>
+      </c>
+      <c r="P96">
+        <v>-0.98683037014390007</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>-0.45718374066744799</v>
+      </c>
+      <c r="L97">
+        <v>-2.7010412813538882</v>
+      </c>
+      <c r="M97">
+        <v>-3.5429929261476909</v>
+      </c>
+      <c r="N97">
+        <v>-4.3745415891280661</v>
+      </c>
+      <c r="O97">
+        <v>-5.1711567221848487</v>
+      </c>
+      <c r="P97">
+        <v>-5.0584706233352854</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0.59752142852747037</v>
+      </c>
+      <c r="L98">
+        <v>-7.3834099493444496</v>
+      </c>
+      <c r="M98">
+        <v>-5.7648952932263651</v>
+      </c>
+      <c r="N98">
+        <v>-5.9975980039092036</v>
+      </c>
+      <c r="O98">
+        <v>-5.9554437636674669</v>
+      </c>
+      <c r="P98">
+        <v>-6.2974894040845593</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1.024463695591882</v>
+      </c>
+      <c r="L99">
+        <v>-3.4568817777186371</v>
+      </c>
+      <c r="M99">
+        <v>-2.827478610851776</v>
+      </c>
+      <c r="N99">
+        <v>-2.8945557110643532</v>
+      </c>
+      <c r="O99">
+        <v>-4.3065970495087651</v>
+      </c>
+      <c r="P99">
+        <v>-4.0894362435991249</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>-1.751528235263669</v>
+      </c>
+      <c r="L100">
+        <v>-1.8955284962056329</v>
+      </c>
+      <c r="M100">
+        <v>-1.53840624472995</v>
+      </c>
+      <c r="N100">
+        <v>-1.4341044408694601</v>
+      </c>
+      <c r="O100">
+        <v>0.21883051154833399</v>
+      </c>
+      <c r="P100">
+        <v>-0.51061859740513416</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>0.6711026600995994</v>
+      </c>
+      <c r="L101">
+        <v>-10.93072603472098</v>
+      </c>
+      <c r="M101">
+        <v>-9.0144229531564353</v>
+      </c>
+      <c r="N101">
+        <v>-8.1612960254530442</v>
+      </c>
+      <c r="O101">
+        <v>-8.0481083125359163</v>
+      </c>
+      <c r="P101">
+        <v>-7.6632579506308058</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>0.7737640022912653</v>
+      </c>
+      <c r="L102">
+        <v>-8.4900006083384536</v>
+      </c>
+      <c r="M102">
+        <v>-7.3430991802304577</v>
+      </c>
+      <c r="N102">
+        <v>-6.9081699761062856</v>
+      </c>
+      <c r="O102">
+        <v>-9.2762484245087702</v>
+      </c>
+      <c r="P102">
+        <v>-9.6067470076620189</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>-0.41850623490378552</v>
+      </c>
+      <c r="L103">
+        <v>-2.2248895192981148</v>
+      </c>
+      <c r="M103">
+        <v>-2.2985834268674532</v>
+      </c>
+      <c r="N103">
+        <v>-2.0367739814838428</v>
+      </c>
+      <c r="O103">
+        <v>-2.1839274312175601</v>
+      </c>
+      <c r="P103">
+        <v>-1.602813732038924</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>0.38170970867976439</v>
+      </c>
+      <c r="L104">
+        <v>-9.6361669980108697</v>
+      </c>
+      <c r="M104">
+        <v>-7.7228394718111328</v>
+      </c>
+      <c r="N104">
+        <v>-7.2527593615073496</v>
+      </c>
+      <c r="O104">
+        <v>-6.9194214338138176</v>
+      </c>
+      <c r="P104">
+        <v>-6.4349751219152838</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0.51611628546888977</v>
+      </c>
+      <c r="L105">
+        <v>-7.1362001162281308</v>
+      </c>
+      <c r="M105">
+        <v>-10.519568972709729</v>
+      </c>
+      <c r="N105">
+        <v>-10.481625669904121</v>
+      </c>
+      <c r="O105">
+        <v>-10.867032278350241</v>
+      </c>
+      <c r="P105">
+        <v>-10.621984681647969</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>-0.44294767356074638</v>
+      </c>
+      <c r="L106">
+        <v>-1.469745084591972</v>
+      </c>
+      <c r="M106">
+        <v>-1.4104139395997639</v>
+      </c>
+      <c r="N106">
+        <v>-1.303556219895206</v>
+      </c>
+      <c r="O106">
+        <v>-2.3068161607979718</v>
+      </c>
+      <c r="P106">
+        <v>-2.5909085124271591</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1.282746025232433</v>
+      </c>
+      <c r="L107">
+        <v>-1.9202855639778009</v>
+      </c>
+      <c r="M107">
+        <v>-1.7649076661398611</v>
+      </c>
+      <c r="N107">
+        <v>-2.6754394868088398</v>
+      </c>
+      <c r="O107">
+        <v>-3.268626573030526</v>
+      </c>
+      <c r="P107">
+        <v>-3.4251940129479861</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>-0.42433411285621681</v>
+      </c>
+      <c r="L108">
+        <v>-3.573678250356398</v>
+      </c>
+      <c r="M108">
+        <v>-2.4085881593127061</v>
+      </c>
+      <c r="N108">
+        <v>-3.0252869542680392</v>
+      </c>
+      <c r="O108">
+        <v>-2.903240063432833</v>
+      </c>
+      <c r="P108">
+        <v>-2.713658893670551</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>0.39678394248246002</v>
+      </c>
+      <c r="L109">
+        <v>-3.6409733566267941</v>
+      </c>
+      <c r="M109">
+        <v>-2.5119640950969901</v>
+      </c>
+      <c r="N109">
+        <v>-2.0161052054979538</v>
+      </c>
+      <c r="O109">
+        <v>-0.35241712088883742</v>
+      </c>
+      <c r="P109">
+        <v>-0.50105268947746728</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>-0.04254899146334</v>
+      </c>
+      <c r="L110">
+        <v>-5.5096339077283236</v>
+      </c>
+      <c r="M110">
+        <v>-4.0904614266841746</v>
+      </c>
+      <c r="N110">
+        <v>-3.8524327899579212</v>
+      </c>
+      <c r="O110">
+        <v>-4.0110721767838804</v>
+      </c>
+      <c r="P110">
+        <v>-3.9318039558678919</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>-1.1259867572765501</v>
+      </c>
+      <c r="L111">
+        <v>-1.5210569940523939</v>
+      </c>
+      <c r="M111">
+        <v>-1.4183707343853349</v>
+      </c>
+      <c r="N111">
+        <v>-1.2546520445633029</v>
+      </c>
+      <c r="O111">
+        <v>-1.491495918011428</v>
+      </c>
+      <c r="P111">
+        <v>-0.65081836584310548</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>-0.1661578552702809</v>
+      </c>
+      <c r="L112">
+        <v>-0.38599784549820021</v>
+      </c>
+      <c r="M112">
+        <v>-0.41448153750994271</v>
+      </c>
+      <c r="N112">
+        <v>-0.52546310000989127</v>
+      </c>
+      <c r="O112">
+        <v>-1.2849578837054061</v>
+      </c>
+      <c r="P112">
+        <v>-0.70446727595995307</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>0.62766650126415913</v>
+      </c>
+      <c r="L113">
+        <v>-3.52179908449116</v>
+      </c>
+      <c r="M113">
+        <v>-1.507293560128941</v>
+      </c>
+      <c r="N113">
+        <v>-1.507098109487166</v>
+      </c>
+      <c r="O113">
+        <v>-1.134711239979715</v>
+      </c>
+      <c r="P113">
+        <v>-0.85454942560997671</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>-2.4096540140868612</v>
+      </c>
+      <c r="L114">
+        <v>-2.2037684726724471</v>
+      </c>
+      <c r="M114">
+        <v>-1.4205767496707711</v>
+      </c>
+      <c r="N114">
+        <v>-2.0764480414419189</v>
+      </c>
+      <c r="O114">
+        <v>-1.5402836053740021</v>
+      </c>
+      <c r="P114">
+        <v>-2.1986384496598168</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>-2.393525098990795</v>
+      </c>
+      <c r="L115">
+        <v>-3.8162550153607051</v>
+      </c>
+      <c r="M115">
+        <v>-2.8451812670376468</v>
+      </c>
+      <c r="N115">
+        <v>-2.2848534694553999</v>
+      </c>
+      <c r="O115">
+        <v>-2.1094878235833781</v>
+      </c>
+      <c r="P115">
+        <v>-1.3857312029323829</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>0.98081468545735495</v>
+      </c>
+      <c r="L116">
+        <v>-7.9047327266327168</v>
+      </c>
+      <c r="M116">
+        <v>-6.0357450059094413</v>
+      </c>
+      <c r="N116">
+        <v>-4.6626688885020018</v>
+      </c>
+      <c r="O116">
+        <v>-3.9916022254277088</v>
+      </c>
+      <c r="P116">
+        <v>-4.2052195107564527</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>-2.4063257852709272</v>
+      </c>
+      <c r="L117">
+        <v>-2.7798086125582002</v>
+      </c>
+      <c r="M117">
+        <v>-1.8420662855114329</v>
+      </c>
+      <c r="N117">
+        <v>-1.926061266104105</v>
+      </c>
+      <c r="O117">
+        <v>-3.5680951259671558</v>
+      </c>
+      <c r="P117">
+        <v>-2.1224142721729011</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>0.78285848312998485</v>
+      </c>
+      <c r="L118">
+        <v>-16.559793222998909</v>
+      </c>
+      <c r="M118">
+        <v>-13.845900336697969</v>
+      </c>
+      <c r="N118">
+        <v>-13.864334004199341</v>
+      </c>
+      <c r="O118">
+        <v>-13.346900170752759</v>
+      </c>
+      <c r="P118">
+        <v>-12.24837211485451</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>-0.53899533443624714</v>
+      </c>
+      <c r="L119">
+        <v>-5.7558826903543041</v>
+      </c>
+      <c r="M119">
+        <v>-3.594873500828129</v>
+      </c>
+      <c r="N119">
+        <v>-3.7638680569390099</v>
+      </c>
+      <c r="O119">
+        <v>-3.5054782791786621</v>
+      </c>
+      <c r="P119">
+        <v>-3.1193006063305999</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>-0.88342866424317457</v>
+      </c>
+      <c r="L120">
+        <v>-2.2470585169249881</v>
+      </c>
+      <c r="M120">
+        <v>-1.459919818702315</v>
+      </c>
+      <c r="N120">
+        <v>-1.3502587284405141</v>
+      </c>
+      <c r="O120">
+        <v>-1.915402303250781</v>
+      </c>
+      <c r="P120">
+        <v>-1.935890085763617</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>-0.18498101305489381</v>
+      </c>
+      <c r="L121">
+        <v>-2.9173675625870938</v>
+      </c>
+      <c r="M121">
+        <v>-3.4553522336863831</v>
+      </c>
+      <c r="N121">
+        <v>-3.529823407426659</v>
+      </c>
+      <c r="O121">
+        <v>-3.0588153282468089</v>
+      </c>
+      <c r="P121">
+        <v>-2.952113629619979</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>-2.0749699386390299</v>
+      </c>
+      <c r="L122">
+        <v>-2.1466830571292821</v>
+      </c>
+      <c r="M122">
+        <v>-3.4908476635246628</v>
+      </c>
+      <c r="N122">
+        <v>-2.685867923750183</v>
+      </c>
+      <c r="O122">
+        <v>-1.7269402645534291</v>
+      </c>
+      <c r="P122">
+        <v>-2.190371864953601</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>-0.50455834259787902</v>
+      </c>
+      <c r="L123">
+        <v>-1.59598287387969</v>
+      </c>
+      <c r="M123">
+        <v>-2.3878957038740869</v>
+      </c>
+      <c r="N123">
+        <v>-5.1215404591759928</v>
+      </c>
+      <c r="O123">
+        <v>-5.40264782940005</v>
+      </c>
+      <c r="P123">
+        <v>-7.170705451227442</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>-0.9335358051872702</v>
+      </c>
+      <c r="L124">
+        <v>-3.201375696195345</v>
+      </c>
+      <c r="M124">
+        <v>-3.2095162787828619</v>
+      </c>
+      <c r="N124">
+        <v>-3.8133773581903578</v>
+      </c>
+      <c r="O124">
+        <v>-3.5002063099613689</v>
+      </c>
+      <c r="P124">
+        <v>-3.072582099090059</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>-0.76983232395841494</v>
+      </c>
+      <c r="L125">
+        <v>-2.081553344295203</v>
+      </c>
+      <c r="M125">
+        <v>-1.795799800408368</v>
+      </c>
+      <c r="N125">
+        <v>-1.431969462067707</v>
+      </c>
+      <c r="O125">
+        <v>-1.7001763891744019</v>
+      </c>
+      <c r="P125">
+        <v>-1.144485757916514</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>0.21108596800286139</v>
+      </c>
+      <c r="L126">
+        <v>0.44301430723394358</v>
+      </c>
+      <c r="M126">
+        <v>0.41068889000709519</v>
+      </c>
+      <c r="N126">
+        <v>0.015726930568178001</v>
+      </c>
+      <c r="O126">
+        <v>-0.29241517937986922</v>
+      </c>
+      <c r="P126">
+        <v>-0.6460421424859919</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>0.48158876896112301</v>
+      </c>
+      <c r="L127">
+        <v>-8.2399713416717244</v>
+      </c>
+      <c r="M127">
+        <v>-6.6719936469965964</v>
+      </c>
+      <c r="N127">
+        <v>-6.3139957564665998</v>
+      </c>
+      <c r="O127">
+        <v>-6.4309511386964262</v>
+      </c>
+      <c r="P127">
+        <v>-5.2301925637912827</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>0.26466019521743511</v>
+      </c>
+      <c r="L128">
+        <v>-2.7591553627163141</v>
+      </c>
+      <c r="M128">
+        <v>-1.6961092237128379</v>
+      </c>
+      <c r="N128">
+        <v>-1.46491131917651</v>
+      </c>
+      <c r="O128">
+        <v>-1.561778198931584</v>
+      </c>
+      <c r="P128">
+        <v>-1.6698159605775409</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>-1.013847096978179</v>
+      </c>
+      <c r="L129">
+        <v>-1.231745403849708</v>
+      </c>
+      <c r="M129">
+        <v>-1.604424376910347</v>
+      </c>
+      <c r="N129">
+        <v>-1.7230698853901421</v>
+      </c>
+      <c r="O129">
+        <v>-1.9581724713868609</v>
+      </c>
+      <c r="P129">
+        <v>-2.4267840799961</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>0.51813634534610165</v>
+      </c>
+      <c r="L130">
+        <v>-6.0942222327786544</v>
+      </c>
+      <c r="M130">
+        <v>-4.6769429907549673</v>
+      </c>
+      <c r="N130">
+        <v>-4.2849105204434599</v>
+      </c>
+      <c r="O130">
+        <v>-3.628749609157071</v>
+      </c>
+      <c r="P130">
+        <v>-7.7520649762257277</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>-2.045993163327454</v>
+      </c>
+      <c r="L131">
+        <v>-3.3565601176261102</v>
+      </c>
+      <c r="M131">
+        <v>-2.945784419093159</v>
+      </c>
+      <c r="N131">
+        <v>-3.7281047580114022</v>
+      </c>
+      <c r="O131">
+        <v>-2.2101421497554909</v>
+      </c>
+      <c r="P131">
+        <v>-2.0334382626213219</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>0.66879731152663691</v>
+      </c>
+      <c r="L132">
+        <v>-1.4050388515740251</v>
+      </c>
+      <c r="M132">
+        <v>-1.2421918799040059</v>
+      </c>
+      <c r="N132">
+        <v>-0.30460281154225771</v>
+      </c>
+      <c r="O132">
+        <v>-0.20339335673255959</v>
+      </c>
+      <c r="P132">
+        <v>0.42151555597947438</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1.595672133552863</v>
+      </c>
+      <c r="L133">
+        <v>-4.8122253422673458</v>
+      </c>
+      <c r="M133">
+        <v>-4.4881174704832816</v>
+      </c>
+      <c r="N133">
+        <v>-4.9102397391443864</v>
+      </c>
+      <c r="O133">
+        <v>-5.6924912173207733</v>
+      </c>
+      <c r="P133">
+        <v>-5.8449784373845883</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>-0.31375499835544363</v>
+      </c>
+      <c r="L134">
+        <v>-1.7590075767288309</v>
+      </c>
+      <c r="M134">
+        <v>-2.2858446484423198</v>
+      </c>
+      <c r="N134">
+        <v>-1.1161791509510579</v>
+      </c>
+      <c r="O134">
+        <v>-1.0579034522011099</v>
+      </c>
+      <c r="P134">
+        <v>-0.48464867398493772</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>0.60149075607994995</v>
+      </c>
+      <c r="L135">
+        <v>-1.175390200283257</v>
+      </c>
+      <c r="M135">
+        <v>-0.0021122921693637999</v>
+      </c>
+      <c r="N135">
+        <v>-0.96510435774283632</v>
+      </c>
+      <c r="O135">
+        <v>-0.51675094882225492</v>
+      </c>
+      <c r="P135">
+        <v>-0.31565679773643179</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>-1.4130359322592729</v>
+      </c>
+      <c r="L136">
+        <v>-2.8520486268459928</v>
+      </c>
+      <c r="M136">
+        <v>-1.99042112334663</v>
+      </c>
+      <c r="N136">
+        <v>-1.856185032018653</v>
+      </c>
+      <c r="O136">
+        <v>-1.6948186654272419</v>
+      </c>
+      <c r="P136">
+        <v>-1.643973087237999</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>0.46774661852035188</v>
+      </c>
+      <c r="L137">
+        <v>-11.27053681327669</v>
+      </c>
+      <c r="M137">
+        <v>-10.247425116620761</v>
+      </c>
+      <c r="N137">
+        <v>-9.9213307524491352</v>
+      </c>
+      <c r="O137">
+        <v>-9.7992466262906568</v>
+      </c>
+      <c r="P137">
+        <v>-9.1221896179309425</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>-1.1443001760632281</v>
+      </c>
+      <c r="L138">
+        <v>-2.08309710156359</v>
+      </c>
+      <c r="M138">
+        <v>-1.7102021171560251</v>
+      </c>
+      <c r="N138">
+        <v>-1.5273108277694241</v>
+      </c>
+      <c r="O138">
+        <v>-1.602648325411584</v>
+      </c>
+      <c r="P138">
+        <v>-1.220186673562734</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2.307752261143186</v>
+      </c>
+      <c r="L139">
+        <v>2.4219575011130221</v>
+      </c>
+      <c r="M139">
+        <v>1.165142929419495</v>
+      </c>
+      <c r="N139">
+        <v>1.4616892245760651</v>
+      </c>
+      <c r="O139">
+        <v>0.27709997311630657</v>
+      </c>
+      <c r="P139">
+        <v>-0.7749890889311869</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>0.017811164740536501</v>
+      </c>
+      <c r="L140">
+        <v>-1.2319225698620779</v>
+      </c>
+      <c r="M140">
+        <v>-1.0510256161811711</v>
+      </c>
+      <c r="N140">
+        <v>-0.97136441874768509</v>
+      </c>
+      <c r="O140">
+        <v>-1.7256983701336619</v>
+      </c>
+      <c r="P140">
+        <v>-1.6468509020469151</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>-2.8622417798279871</v>
+      </c>
+      <c r="L141">
+        <v>-2.6333438811672538</v>
+      </c>
+      <c r="M141">
+        <v>-1.3020159078519069</v>
+      </c>
+      <c r="N141">
+        <v>-1.4369144649482251</v>
+      </c>
+      <c r="O141">
+        <v>-2.0851252334639478</v>
+      </c>
+      <c r="P141">
+        <v>-1.0281957327750031</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>-0.19163568516416779</v>
+      </c>
+      <c r="L142">
+        <v>-1.8866381981185849</v>
+      </c>
+      <c r="M142">
+        <v>-1.6471978909699441</v>
+      </c>
+      <c r="N142">
+        <v>-2.6800641326118142</v>
+      </c>
+      <c r="O142">
+        <v>-2.9624955284471062</v>
+      </c>
+      <c r="P142">
+        <v>-2.9508587835985551</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>0.58054338510020853</v>
+      </c>
+      <c r="L143">
+        <v>0.43265753139143093</v>
+      </c>
+      <c r="M143">
+        <v>0.41778009052567472</v>
+      </c>
+      <c r="N143">
+        <v>0.47432382524432348</v>
+      </c>
+      <c r="O143">
+        <v>0.90260801106066069</v>
+      </c>
+      <c r="P143">
+        <v>0.14779932997334189</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>0.62406385687536248</v>
+      </c>
+      <c r="L144">
+        <v>-37.373825492700988</v>
+      </c>
+      <c r="M144">
+        <v>-58.707725550409037</v>
+      </c>
+      <c r="N144">
+        <v>-55.636311700034362</v>
+      </c>
+      <c r="O144">
+        <v>-83.715007905987562</v>
+      </c>
+      <c r="P144">
+        <v>-77.814839761921348</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>-1.075609400436125</v>
+      </c>
+      <c r="L145">
+        <v>-2.1393143488321229</v>
+      </c>
+      <c r="M145">
+        <v>-1.40474377523528</v>
+      </c>
+      <c r="N145">
+        <v>-2.357393206419879</v>
+      </c>
+      <c r="O145">
+        <v>-2.227472864568468</v>
+      </c>
+      <c r="P145">
+        <v>-1.852945026634387</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>-0.82373969268992231</v>
+      </c>
+      <c r="L146">
+        <v>-0.84895686119805891</v>
+      </c>
+      <c r="M146">
+        <v>-1.0315381392029119</v>
+      </c>
+      <c r="N146">
+        <v>0.77925106474119366</v>
+      </c>
+      <c r="O146">
+        <v>0.73802112216013338</v>
+      </c>
+      <c r="P146">
+        <v>0.61535905710919236</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>-0.27053779756629348</v>
+      </c>
+      <c r="L147">
+        <v>-0.90620660312905843</v>
+      </c>
+      <c r="M147">
+        <v>-0.64075114418024037</v>
+      </c>
+      <c r="N147">
+        <v>-0.83170182031605222</v>
+      </c>
+      <c r="O147">
+        <v>-1.2502633264386549</v>
+      </c>
+      <c r="P147">
+        <v>-1.058659045383022</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P147"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>-3.5049061676013542</v>
+      </c>
+      <c r="K2">
+        <v>-3.5049061676013542</v>
+      </c>
+      <c r="L2">
+        <v>-3.5676048749423259</v>
+      </c>
+      <c r="M2">
+        <v>-5.3391657558219316</v>
+      </c>
+      <c r="N2">
+        <v>-5.1188408597416633</v>
+      </c>
+      <c r="O2">
+        <v>-4.1549431819250584</v>
+      </c>
+      <c r="P2">
+        <v>-1.650389840858361</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>-3.137359450296259</v>
+      </c>
+      <c r="K3">
+        <v>-3.137359450296259</v>
+      </c>
+      <c r="L3">
+        <v>-3.4707598336992951</v>
+      </c>
+      <c r="M3">
+        <v>-3.265566795869645</v>
+      </c>
+      <c r="N3">
+        <v>-3.13204742270235</v>
+      </c>
+      <c r="O3">
+        <v>-3.787307688484562</v>
+      </c>
+      <c r="P3">
+        <v>-1.5795826249026881</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>-2.291110232291603</v>
+      </c>
+      <c r="K4">
+        <v>-2.291110232291603</v>
+      </c>
+      <c r="L4">
+        <v>-1.695085841979622</v>
+      </c>
+      <c r="M4">
+        <v>-2.1514941075765002</v>
+      </c>
+      <c r="N4">
+        <v>-1.6775591490365711</v>
+      </c>
+      <c r="O4">
+        <v>-1.7901144237224551</v>
+      </c>
+      <c r="P4">
+        <v>-0.60038565142956291</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>-3.2939820225192831</v>
+      </c>
+      <c r="K5">
+        <v>-3.2939820225192831</v>
+      </c>
+      <c r="L5">
+        <v>-6.4928103203649474</v>
+      </c>
+      <c r="M5">
+        <v>-9.3616544936076398</v>
+      </c>
+      <c r="N5">
+        <v>-8.1248733387222138</v>
+      </c>
+      <c r="O5">
+        <v>-10.090229650092279</v>
+      </c>
+      <c r="P5">
+        <v>-1.643025144010946</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>-3.4495769391490252</v>
+      </c>
+      <c r="K6">
+        <v>-3.4495769391490252</v>
+      </c>
+      <c r="L6">
+        <v>-3.0516456421872431</v>
+      </c>
+      <c r="M6">
+        <v>-2.3755085862978631</v>
+      </c>
+      <c r="N6">
+        <v>-1.8981269589875971</v>
+      </c>
+      <c r="O6">
+        <v>-1.6187811592282291</v>
+      </c>
+      <c r="P6">
+        <v>-0.79217312440229581</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>-2.7085532780909052</v>
+      </c>
+      <c r="K7">
+        <v>-2.7085532780909052</v>
+      </c>
+      <c r="L7">
+        <v>-2.1875030309661798</v>
+      </c>
+      <c r="M7">
+        <v>-2.4902165075756422</v>
+      </c>
+      <c r="N7">
+        <v>-1.129235015057249</v>
+      </c>
+      <c r="O7">
+        <v>-1.5874598100059381</v>
+      </c>
+      <c r="P7">
+        <v>-0.35364410579981842</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>-4.3122994234753032</v>
+      </c>
+      <c r="K8">
+        <v>-4.3122994234753032</v>
+      </c>
+      <c r="L8">
+        <v>-10.4936334746825</v>
+      </c>
+      <c r="M8">
+        <v>-9.7257365014120598</v>
+      </c>
+      <c r="N8">
+        <v>-9.172009999889239</v>
+      </c>
+      <c r="O8">
+        <v>-9.7078167910858912</v>
+      </c>
+      <c r="P8">
+        <v>-0.6862987518564726</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>-1.878081119829742</v>
+      </c>
+      <c r="K9">
+        <v>-1.878081119829742</v>
+      </c>
+      <c r="L9">
+        <v>-2.1777838749743101</v>
+      </c>
+      <c r="M9">
+        <v>-2.473847420840587</v>
+      </c>
+      <c r="N9">
+        <v>-1.458031219418072</v>
+      </c>
+      <c r="O9">
+        <v>-1.432652114543802</v>
+      </c>
+      <c r="P9">
+        <v>-0.87266382468005577</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>-1.296261441702794</v>
+      </c>
+      <c r="K10">
+        <v>-1.296261441702794</v>
+      </c>
+      <c r="L10">
+        <v>-1.8547200575298539</v>
+      </c>
+      <c r="M10">
+        <v>-1.991655525249109</v>
+      </c>
+      <c r="N10">
+        <v>-2.4666082316862838</v>
+      </c>
+      <c r="O10">
+        <v>-2.2057230168677</v>
+      </c>
+      <c r="P10">
+        <v>-0.025512362632549301</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>-2.3511891706633312</v>
+      </c>
+      <c r="K11">
+        <v>-2.3511891706633312</v>
+      </c>
+      <c r="L11">
+        <v>-2.2132389684885081</v>
+      </c>
+      <c r="M11">
+        <v>-3.4345775503313001</v>
+      </c>
+      <c r="N11">
+        <v>-2.8359582318902872</v>
+      </c>
+      <c r="O11">
+        <v>-3.4601112327436998</v>
+      </c>
+      <c r="P11">
+        <v>-2.491244115087063</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>-1.015286305452187</v>
+      </c>
+      <c r="K12">
+        <v>-1.015286305452187</v>
+      </c>
+      <c r="L12">
+        <v>-15.1215783446931</v>
+      </c>
+      <c r="M12">
+        <v>-13.396806019923361</v>
+      </c>
+      <c r="N12">
+        <v>-12.19633068001645</v>
+      </c>
+      <c r="O12">
+        <v>-11.59406178848579</v>
+      </c>
+      <c r="P12">
+        <v>1.934149709688288</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>-2.0639167139868779</v>
+      </c>
+      <c r="K13">
+        <v>-2.0639167139868779</v>
+      </c>
+      <c r="L13">
+        <v>-1.68422197252647</v>
+      </c>
+      <c r="M13">
+        <v>-1.605898086808438</v>
+      </c>
+      <c r="N13">
+        <v>-2.269560817733157</v>
+      </c>
+      <c r="O13">
+        <v>-2.574917675762761</v>
+      </c>
+      <c r="P13">
+        <v>-2.192932357609283</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>-2.170610419037136</v>
+      </c>
+      <c r="K14">
+        <v>-2.170610419037136</v>
+      </c>
+      <c r="L14">
+        <v>-1.598856151535021</v>
+      </c>
+      <c r="M14">
+        <v>-1.536153299365465</v>
+      </c>
+      <c r="N14">
+        <v>-1.4855732337970959</v>
+      </c>
+      <c r="O14">
+        <v>-1.3907904492085299</v>
+      </c>
+      <c r="P14">
+        <v>-2.9014558544410249</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>-2.339894694097886</v>
+      </c>
+      <c r="K15">
+        <v>-2.339894694097886</v>
+      </c>
+      <c r="L15">
+        <v>-2.7897646968424681</v>
+      </c>
+      <c r="M15">
+        <v>-3.0497681225344229</v>
+      </c>
+      <c r="N15">
+        <v>-2.0253639936018928</v>
+      </c>
+      <c r="O15">
+        <v>-1.981810848188045</v>
+      </c>
+      <c r="P15">
+        <v>-1.4027507516550759</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>-3.0994092045484982</v>
+      </c>
+      <c r="K16">
+        <v>-3.0994092045484982</v>
+      </c>
+      <c r="L16">
+        <v>-6.4663704693533823</v>
+      </c>
+      <c r="M16">
+        <v>-6.0024774137518992</v>
+      </c>
+      <c r="N16">
+        <v>-6.4134400886963068</v>
+      </c>
+      <c r="O16">
+        <v>-6.4258081017323549</v>
+      </c>
+      <c r="P16">
+        <v>-5.4888140518122448</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>-1.8458701473895129</v>
+      </c>
+      <c r="K17">
+        <v>-1.8458701473895129</v>
+      </c>
+      <c r="L17">
+        <v>-2.476689766402834</v>
+      </c>
+      <c r="M17">
+        <v>-3.5046797885980769</v>
+      </c>
+      <c r="N17">
+        <v>-3.4124528294640619</v>
+      </c>
+      <c r="O17">
+        <v>-2.289219617445815</v>
+      </c>
+      <c r="P17">
+        <v>-0.81324459280153538</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>1.027435887087226</v>
+      </c>
+      <c r="K18">
+        <v>1.027435887087226</v>
+      </c>
+      <c r="L18">
+        <v>2.5473441945140691</v>
+      </c>
+      <c r="M18">
+        <v>2.092040278390995</v>
+      </c>
+      <c r="N18">
+        <v>-0.32734354080670242</v>
+      </c>
+      <c r="O18">
+        <v>-0.57571138036836833</v>
+      </c>
+      <c r="P18">
+        <v>3.3699982339403891</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>-4.9541745305952416</v>
+      </c>
+      <c r="K19">
+        <v>-4.9541745305952416</v>
+      </c>
+      <c r="L19">
+        <v>-8.3903841947313698</v>
+      </c>
+      <c r="M19">
+        <v>-8.5488890319429807</v>
+      </c>
+      <c r="N19">
+        <v>-7.2945259778156641</v>
+      </c>
+      <c r="O19">
+        <v>-8.5126582810972398</v>
+      </c>
+      <c r="P19">
+        <v>0.6112970877351892</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20">
+        <v>-1.883579948017041</v>
+      </c>
+      <c r="K20">
+        <v>-1.883579948017041</v>
+      </c>
+      <c r="L20">
+        <v>-4.3892071127415351</v>
+      </c>
+      <c r="M20">
+        <v>-4.1892390713267886</v>
+      </c>
+      <c r="N20">
+        <v>-5.0713297005098763</v>
+      </c>
+      <c r="O20">
+        <v>-6.7137444609074182</v>
+      </c>
+      <c r="P20">
+        <v>-0.1108207715233631</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>-2.3453917064811431</v>
+      </c>
+      <c r="K21">
+        <v>-2.3453917064811431</v>
+      </c>
+      <c r="L21">
+        <v>-2.8125087259641952</v>
+      </c>
+      <c r="M21">
+        <v>-1.8471316155294091</v>
+      </c>
+      <c r="N21">
+        <v>-2.0949128335091198</v>
+      </c>
+      <c r="O21">
+        <v>-2.2335047741660992</v>
+      </c>
+      <c r="P21">
+        <v>-2.0979168093744178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>-3.1336087973161848</v>
+      </c>
+      <c r="K22">
+        <v>-3.1336087973161848</v>
+      </c>
+      <c r="L22">
+        <v>-2.6111653131097601</v>
+      </c>
+      <c r="M22">
+        <v>-2.1093484879345521</v>
+      </c>
+      <c r="N22">
+        <v>-1.7289169209867949</v>
+      </c>
+      <c r="O22">
+        <v>-1.2634531202684931</v>
+      </c>
+      <c r="P22">
+        <v>-1.1779075755328861</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23">
+        <v>-2.4276467058226219</v>
+      </c>
+      <c r="K23">
+        <v>-2.4276467058226219</v>
+      </c>
+      <c r="L23">
+        <v>-1.940617034187617</v>
+      </c>
+      <c r="M23">
+        <v>-0.72518108757973765</v>
+      </c>
+      <c r="N23">
+        <v>-0.54693046301483483</v>
+      </c>
+      <c r="O23">
+        <v>-0.011006131350648599</v>
+      </c>
+      <c r="P23">
+        <v>-0.61740949048983307</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24">
+        <v>-3.025267586386267</v>
+      </c>
+      <c r="K24">
+        <v>-3.025267586386267</v>
+      </c>
+      <c r="L24">
+        <v>-4.1495560016853981</v>
+      </c>
+      <c r="M24">
+        <v>-5.2991549439163652</v>
+      </c>
+      <c r="N24">
+        <v>-5.0281551353609144</v>
+      </c>
+      <c r="O24">
+        <v>-4.4382142360610306</v>
+      </c>
+      <c r="P24">
+        <v>-1.0494970785841411</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25">
+        <v>-2.3192832356688542</v>
+      </c>
+      <c r="K25">
+        <v>-2.3192832356688542</v>
+      </c>
+      <c r="L25">
+        <v>-12.919018603070111</v>
+      </c>
+      <c r="M25">
+        <v>-12.676616353786351</v>
+      </c>
+      <c r="N25">
+        <v>-11.90972754318204</v>
+      </c>
+      <c r="O25">
+        <v>-11.289654866646529</v>
+      </c>
+      <c r="P25">
+        <v>-2.40552100533524</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>-1.38083972499102</v>
+      </c>
+      <c r="K26">
+        <v>-1.38083972499102</v>
+      </c>
+      <c r="L26">
+        <v>-0.90780909228122619</v>
+      </c>
+      <c r="M26">
+        <v>-0.87580216517424392</v>
+      </c>
+      <c r="N26">
+        <v>-0.99040130712544583</v>
+      </c>
+      <c r="O26">
+        <v>-1.2924503913432619</v>
+      </c>
+      <c r="P26">
+        <v>-6.3130599427797476</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27">
+        <v>-1.5171125906707199</v>
+      </c>
+      <c r="K27">
+        <v>-1.5171125906707199</v>
+      </c>
+      <c r="L27">
+        <v>-3.955856197966428</v>
+      </c>
+      <c r="M27">
+        <v>-3.7575859971067498</v>
+      </c>
+      <c r="N27">
+        <v>-3.9499341315190541</v>
+      </c>
+      <c r="O27">
+        <v>-3.6092741906946291</v>
+      </c>
+      <c r="P27">
+        <v>-1.517318676109594</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28">
+        <v>-0.96514923215195192</v>
+      </c>
+      <c r="K28">
+        <v>-0.96514923215195192</v>
+      </c>
+      <c r="L28">
+        <v>0.62441551798119743</v>
+      </c>
+      <c r="M28">
+        <v>0.61077017690102975</v>
+      </c>
+      <c r="N28">
+        <v>-0.97456886000091214</v>
+      </c>
+      <c r="O28">
+        <v>-0.61013604739764193</v>
+      </c>
+      <c r="P28">
+        <v>-3.9244497027195768</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29">
+        <v>-0.38363132693456742</v>
+      </c>
+      <c r="K29">
+        <v>-0.38363132693456742</v>
+      </c>
+      <c r="L29">
+        <v>-32.396287847630077</v>
+      </c>
+      <c r="M29">
+        <v>-29.357588617635201</v>
+      </c>
+      <c r="N29">
+        <v>-29.926601138384228</v>
+      </c>
+      <c r="O29">
+        <v>-33.272743743060552</v>
+      </c>
+      <c r="P29">
+        <v>0.8594325292602546</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30">
+        <v>-1.6045019195775889</v>
+      </c>
+      <c r="K30">
+        <v>-1.6045019195775889</v>
+      </c>
+      <c r="L30">
+        <v>-2.4570441313746159</v>
+      </c>
+      <c r="M30">
+        <v>-2.9583611130581291</v>
+      </c>
+      <c r="N30">
+        <v>-2.9832992549939341</v>
+      </c>
+      <c r="O30">
+        <v>-2.3423480580902911</v>
+      </c>
+      <c r="P30">
+        <v>-2.22943842583352</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <v>-4.2775809107817464</v>
+      </c>
+      <c r="K31">
+        <v>-4.2775809107817464</v>
+      </c>
+      <c r="L31">
+        <v>-3.6616888597944022</v>
+      </c>
+      <c r="M31">
+        <v>-3.2506185122124029</v>
+      </c>
+      <c r="N31">
+        <v>-2.236720765219431</v>
+      </c>
+      <c r="O31">
+        <v>-2.9150368866474028</v>
+      </c>
+      <c r="P31">
+        <v>-2.2920627981622941</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32">
+        <v>-2.2802413523850151</v>
+      </c>
+      <c r="K32">
+        <v>-2.2802413523850151</v>
+      </c>
+      <c r="L32">
+        <v>-3.1563971572522789</v>
+      </c>
+      <c r="M32">
+        <v>-4.4616864404276706</v>
+      </c>
+      <c r="N32">
+        <v>-4.5825344233986582</v>
+      </c>
+      <c r="O32">
+        <v>-4.744461980826947</v>
+      </c>
+      <c r="P32">
+        <v>-1.1577721540089709</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33">
+        <v>-2.3414651765208991</v>
+      </c>
+      <c r="K33">
+        <v>-2.3414651765208991</v>
+      </c>
+      <c r="L33">
+        <v>-3.7852480351470512</v>
+      </c>
+      <c r="M33">
+        <v>-3.0829237083296599</v>
+      </c>
+      <c r="N33">
+        <v>-4.1625626001694496</v>
+      </c>
+      <c r="O33">
+        <v>-4.4369902555238179</v>
+      </c>
+      <c r="P33">
+        <v>-0.31911395638627987</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34">
+        <v>-2.4192889406759761</v>
+      </c>
+      <c r="K34">
+        <v>-2.4192889406759761</v>
+      </c>
+      <c r="L34">
+        <v>-2.6109737294882009</v>
+      </c>
+      <c r="M34">
+        <v>-2.0918477126935908</v>
+      </c>
+      <c r="N34">
+        <v>-3.2324517040043488</v>
+      </c>
+      <c r="O34">
+        <v>-3.129407739376036</v>
+      </c>
+      <c r="P34">
+        <v>-1.01032488331054</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35">
+        <v>-1.750816731130983</v>
+      </c>
+      <c r="K35">
+        <v>-1.750816731130983</v>
+      </c>
+      <c r="L35">
+        <v>-4.0594036983403079</v>
+      </c>
+      <c r="M35">
+        <v>-2.80705567401044</v>
+      </c>
+      <c r="N35">
+        <v>-2.617137595124599</v>
+      </c>
+      <c r="O35">
+        <v>-2.1902186778306469</v>
+      </c>
+      <c r="P35">
+        <v>0.2186170191260445</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36">
+        <v>-1.100883822703256</v>
+      </c>
+      <c r="K36">
+        <v>-1.100883822703256</v>
+      </c>
+      <c r="L36">
+        <v>0.2317628869417486</v>
+      </c>
+      <c r="M36">
+        <v>0.70967930604969032</v>
+      </c>
+      <c r="N36">
+        <v>0.67357402129718036</v>
+      </c>
+      <c r="O36">
+        <v>1.0163350116139489</v>
+      </c>
+      <c r="P36">
+        <v>0.64666070255667518</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37">
+        <v>-1.8018986341300629</v>
+      </c>
+      <c r="K37">
+        <v>-1.8018986341300629</v>
+      </c>
+      <c r="L37">
+        <v>-2.947505603764081</v>
+      </c>
+      <c r="M37">
+        <v>-2.5120688291791482</v>
+      </c>
+      <c r="N37">
+        <v>-2.4462907537245222</v>
+      </c>
+      <c r="O37">
+        <v>-2.4101647450132608</v>
+      </c>
+      <c r="P37">
+        <v>-1.476367226018525</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38">
+        <v>-2.5871982717978641</v>
+      </c>
+      <c r="K38">
+        <v>-2.5871982717978641</v>
+      </c>
+      <c r="L38">
+        <v>-2.7138029993873811</v>
+      </c>
+      <c r="M38">
+        <v>-2.311594596984218</v>
+      </c>
+      <c r="N38">
+        <v>-1.9884997652777869</v>
+      </c>
+      <c r="O38">
+        <v>-1.9584857073994979</v>
+      </c>
+      <c r="P38">
+        <v>-0.049287914819472499</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39">
+        <v>-1.861430109885716</v>
+      </c>
+      <c r="K39">
+        <v>-1.861430109885716</v>
+      </c>
+      <c r="L39">
+        <v>-6.8489309523685771</v>
+      </c>
+      <c r="M39">
+        <v>-5.3797557055859864</v>
+      </c>
+      <c r="N39">
+        <v>-5.4212070487364654</v>
+      </c>
+      <c r="O39">
+        <v>-5.5677124035185681</v>
+      </c>
+      <c r="P39">
+        <v>-16.453929915366469</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40">
+        <v>-0.44770256176443418</v>
+      </c>
+      <c r="K40">
+        <v>-0.44770256176443418</v>
+      </c>
+      <c r="L40">
+        <v>-11.548659486839769</v>
+      </c>
+      <c r="M40">
+        <v>-9.0950175207537356</v>
+      </c>
+      <c r="N40">
+        <v>-8.4599053963069117</v>
+      </c>
+      <c r="O40">
+        <v>-8.1551952881018526</v>
+      </c>
+      <c r="P40">
+        <v>1.6471848991969531</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41">
+        <v>-4.4932158631947967</v>
+      </c>
+      <c r="K41">
+        <v>-4.4932158631947967</v>
+      </c>
+      <c r="L41">
+        <v>-25.173627340967819</v>
+      </c>
+      <c r="M41">
+        <v>-23.30589661117671</v>
+      </c>
+      <c r="N41">
+        <v>-22.1446370945281</v>
+      </c>
+      <c r="O41">
+        <v>-21.122341231722942</v>
+      </c>
+      <c r="P41">
+        <v>-2.0495031339108158</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42">
+        <v>-1.7347592733719439</v>
+      </c>
+      <c r="K42">
+        <v>-1.7347592733719439</v>
+      </c>
+      <c r="L42">
+        <v>-5.7138885778430533</v>
+      </c>
+      <c r="M42">
+        <v>-5.1672954042321919</v>
+      </c>
+      <c r="N42">
+        <v>-4.9649583690301968</v>
+      </c>
+      <c r="O42">
+        <v>-6.1978702595904194</v>
+      </c>
+      <c r="P42">
+        <v>-1.5656864228395351</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43">
+        <v>-2.038970614764021</v>
+      </c>
+      <c r="K43">
+        <v>-2.038970614764021</v>
+      </c>
+      <c r="L43">
+        <v>-0.37362667695322799</v>
+      </c>
+      <c r="M43">
+        <v>-0.37186651409356652</v>
+      </c>
+      <c r="N43">
+        <v>-2.062723404137921</v>
+      </c>
+      <c r="O43">
+        <v>-2.7397815686653599</v>
+      </c>
+      <c r="P43">
+        <v>-3.3655775657877922</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="J44">
+        <v>-1.7833554958040421</v>
+      </c>
+      <c r="K44">
+        <v>-1.7833554958040421</v>
+      </c>
+      <c r="L44">
+        <v>-1.2566934296067609</v>
+      </c>
+      <c r="M44">
+        <v>-0.73291747842666188</v>
+      </c>
+      <c r="N44">
+        <v>0.1917363362733191</v>
+      </c>
+      <c r="O44">
+        <v>-0.0137655127512482</v>
+      </c>
+      <c r="P44">
+        <v>1.3710740397282379</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45">
+        <v>0.2593825302337775</v>
+      </c>
+      <c r="K45">
+        <v>0.2593825302337775</v>
+      </c>
+      <c r="L45">
+        <v>-0.54512998483531938</v>
+      </c>
+      <c r="M45">
+        <v>1.831361079989523</v>
+      </c>
+      <c r="N45">
+        <v>0.22948369555793161</v>
+      </c>
+      <c r="O45">
+        <v>-0.83703356616471569</v>
+      </c>
+      <c r="P45">
+        <v>-1.4518006906170631</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46">
+        <v>-2.466826356709106</v>
+      </c>
+      <c r="K46">
+        <v>-2.466826356709106</v>
+      </c>
+      <c r="L46">
+        <v>-1.7454516473759949</v>
+      </c>
+      <c r="M46">
+        <v>-1.903969867859302</v>
+      </c>
+      <c r="N46">
+        <v>-1.161929115584023</v>
+      </c>
+      <c r="O46">
+        <v>-1.3074456931232401</v>
+      </c>
+      <c r="P46" s="0"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47">
+        <v>-3.6409533015218689</v>
+      </c>
+      <c r="K47">
+        <v>-3.6409533015218689</v>
+      </c>
+      <c r="L47">
+        <v>-1.9019277786627971</v>
+      </c>
+      <c r="M47">
+        <v>-1.3293371640940621</v>
+      </c>
+      <c r="N47">
+        <v>-1.0969382491851589</v>
+      </c>
+      <c r="O47">
+        <v>-1.3368470428391579</v>
+      </c>
+      <c r="P47">
+        <v>-2.0752455440693058</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48">
+        <v>-1.161472228108372</v>
+      </c>
+      <c r="K48">
+        <v>-1.161472228108372</v>
+      </c>
+      <c r="L48">
+        <v>-0.62183349129247978</v>
+      </c>
+      <c r="M48">
+        <v>-0.019398102010270101</v>
+      </c>
+      <c r="N48">
+        <v>-0.068906388822977394</v>
+      </c>
+      <c r="O48">
+        <v>0.2118430761422487</v>
+      </c>
+      <c r="P48">
+        <v>-6.9072585331886467</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49">
+        <v>-0.61735241074718195</v>
+      </c>
+      <c r="K49">
+        <v>-0.61735241074718195</v>
+      </c>
+      <c r="L49">
+        <v>-9.9373076691657811</v>
+      </c>
+      <c r="M49">
+        <v>-8.3182210795476372</v>
+      </c>
+      <c r="N49">
+        <v>-8.7900728709436606</v>
+      </c>
+      <c r="O49">
+        <v>-9.2374002434684641</v>
+      </c>
+      <c r="P49">
+        <v>-1.1686155314550399</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="J50">
+        <v>-2.6861690173582442</v>
+      </c>
+      <c r="K50">
+        <v>-2.6861690173582442</v>
+      </c>
+      <c r="L50">
+        <v>-2.9374213965617089</v>
+      </c>
+      <c r="M50">
+        <v>-2.7149862496632489</v>
+      </c>
+      <c r="N50">
+        <v>-3.5140128905402892</v>
+      </c>
+      <c r="O50">
+        <v>-3.8487932297155978</v>
+      </c>
+      <c r="P50">
+        <v>1.320599572215756</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="J51">
+        <v>-2.6415976247540298</v>
+      </c>
+      <c r="K51">
+        <v>-2.6415976247540298</v>
+      </c>
+      <c r="L51">
+        <v>-2.2660358359188679</v>
+      </c>
+      <c r="M51">
+        <v>-2.6026301081053842</v>
+      </c>
+      <c r="N51">
+        <v>-1.9421050340063239</v>
+      </c>
+      <c r="O51">
+        <v>-1.7927333861938679</v>
+      </c>
+      <c r="P51">
+        <v>-2.893652758729782</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52">
+        <v>0.23999149491044849</v>
+      </c>
+      <c r="K52">
+        <v>0.23999149491044849</v>
+      </c>
+      <c r="L52">
+        <v>1.757808669201544</v>
+      </c>
+      <c r="M52">
+        <v>1.764535691376464</v>
+      </c>
+      <c r="N52">
+        <v>0.58087371569221447</v>
+      </c>
+      <c r="O52">
+        <v>0.75700919873343353</v>
+      </c>
+      <c r="P52">
+        <v>-0.0016539237770953001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="J53">
+        <v>-4.624457655942626</v>
+      </c>
+      <c r="K53">
+        <v>-4.624457655942626</v>
+      </c>
+      <c r="L53">
+        <v>-3.6115627285402989</v>
+      </c>
+      <c r="M53">
+        <v>-2.5965380966690659</v>
+      </c>
+      <c r="N53">
+        <v>-2.3557409381758032</v>
+      </c>
+      <c r="O53">
+        <v>-2.1196996890930739</v>
+      </c>
+      <c r="P53">
+        <v>0.61357199688850561</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="J54">
+        <v>-1.2460884099140961</v>
+      </c>
+      <c r="K54">
+        <v>-1.2460884099140961</v>
+      </c>
+      <c r="L54">
+        <v>-13.01709665560649</v>
+      </c>
+      <c r="M54">
+        <v>-11.71029801591086</v>
+      </c>
+      <c r="N54">
+        <v>-14.13559206022909</v>
+      </c>
+      <c r="O54">
+        <v>-17.487528504282821</v>
+      </c>
+      <c r="P54">
+        <v>-1.1501761058750699</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="J55">
+        <v>-3.6426113631440682</v>
+      </c>
+      <c r="K55">
+        <v>-3.6426113631440682</v>
+      </c>
+      <c r="L55">
+        <v>-2.546788546704561</v>
+      </c>
+      <c r="M55">
+        <v>-1.8733056057618129</v>
+      </c>
+      <c r="N55">
+        <v>-1.576961973602869</v>
+      </c>
+      <c r="O55">
+        <v>-1.770639184246344</v>
+      </c>
+      <c r="P55">
+        <v>-0.55375643437053601</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56">
+        <v>-2.4867551118194688</v>
+      </c>
+      <c r="K56">
+        <v>-2.4867551118194688</v>
+      </c>
+      <c r="L56">
+        <v>-2.7289183607953511</v>
+      </c>
+      <c r="M56">
+        <v>-4.4035511864507857</v>
+      </c>
+      <c r="N56">
+        <v>-4.0918628595856417</v>
+      </c>
+      <c r="O56">
+        <v>-2.8589489600378069</v>
+      </c>
+      <c r="P56">
+        <v>-1.478325758373116</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57">
+        <v>-1.6512976466714899</v>
+      </c>
+      <c r="K57">
+        <v>-1.6512976466714899</v>
+      </c>
+      <c r="L57">
+        <v>-2.574344109733663</v>
+      </c>
+      <c r="M57">
+        <v>-3.0146144367605792</v>
+      </c>
+      <c r="N57">
+        <v>-3.1794983830886312</v>
+      </c>
+      <c r="O57">
+        <v>-2.8469394528900129</v>
+      </c>
+      <c r="P57">
+        <v>-3.8698115713528458</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58">
+        <v>-0.47430460909521271</v>
+      </c>
+      <c r="K58">
+        <v>-0.47430460909521271</v>
+      </c>
+      <c r="L58">
+        <v>-13.815923506579439</v>
+      </c>
+      <c r="M58">
+        <v>-12.45192905108823</v>
+      </c>
+      <c r="N58">
+        <v>-17.16605326154675</v>
+      </c>
+      <c r="O58">
+        <v>-22.484056698702432</v>
+      </c>
+      <c r="P58">
+        <v>-1.3600323020123259</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="J59">
+        <v>-1.9678112717476881</v>
+      </c>
+      <c r="K59">
+        <v>-1.9678112717476881</v>
+      </c>
+      <c r="L59">
+        <v>0.0020186925354776998</v>
+      </c>
+      <c r="M59">
+        <v>0.034594016341042297</v>
+      </c>
+      <c r="N59">
+        <v>-0.52929273076155881</v>
+      </c>
+      <c r="O59">
+        <v>-0.87484352652727793</v>
+      </c>
+      <c r="P59">
+        <v>-1.693797715298976</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60">
+        <v>-1.620455792872489</v>
+      </c>
+      <c r="K60">
+        <v>-1.620455792872489</v>
+      </c>
+      <c r="L60">
+        <v>-2.8328440141354991</v>
+      </c>
+      <c r="M60">
+        <v>-1.9674362931168921</v>
+      </c>
+      <c r="N60">
+        <v>-2.8743796457144959</v>
+      </c>
+      <c r="O60">
+        <v>-2.531018306494782</v>
+      </c>
+      <c r="P60">
+        <v>-1.0615606993554609</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61">
+        <v>-1.9740960969032639</v>
+      </c>
+      <c r="K61">
+        <v>-1.9740960969032639</v>
+      </c>
+      <c r="L61">
+        <v>-6.9055969439120117</v>
+      </c>
+      <c r="M61">
+        <v>-9.4138273189676838</v>
+      </c>
+      <c r="N61">
+        <v>-9.5627442476144466</v>
+      </c>
+      <c r="O61">
+        <v>-10.71063900978055</v>
+      </c>
+      <c r="P61">
+        <v>0.52669092765663494</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="J62">
+        <v>-3.2979175421336651</v>
+      </c>
+      <c r="K62">
+        <v>-3.2979175421336651</v>
+      </c>
+      <c r="L62">
+        <v>-3.2253823279318881</v>
+      </c>
+      <c r="M62">
+        <v>-2.4553968387838112</v>
+      </c>
+      <c r="N62">
+        <v>-2.3227784550280468</v>
+      </c>
+      <c r="O62">
+        <v>-2.1703149104025128</v>
+      </c>
+      <c r="P62">
+        <v>-2.5995132487334258</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63">
+        <v>-2.575662972476942</v>
+      </c>
+      <c r="K63">
+        <v>-2.575662972476942</v>
+      </c>
+      <c r="L63">
+        <v>0.20280222682567281</v>
+      </c>
+      <c r="M63">
+        <v>0.18198108628055731</v>
+      </c>
+      <c r="N63">
+        <v>-0.2308765324843278</v>
+      </c>
+      <c r="O63">
+        <v>-0.31727743595446461</v>
+      </c>
+      <c r="P63">
+        <v>3.0658760611808238</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="J64">
+        <v>-2.2465833120224361</v>
+      </c>
+      <c r="K64">
+        <v>-2.2465833120224361</v>
+      </c>
+      <c r="L64">
+        <v>-10.63841826231339</v>
+      </c>
+      <c r="M64">
+        <v>-8.4098075568748509</v>
+      </c>
+      <c r="N64">
+        <v>-7.4810234942475304</v>
+      </c>
+      <c r="O64">
+        <v>-6.7677603887120226</v>
+      </c>
+      <c r="P64">
+        <v>-1.3691074858622341</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65">
+        <v>-4.0247925944444756</v>
+      </c>
+      <c r="K65">
+        <v>-4.0247925944444756</v>
+      </c>
+      <c r="L65">
+        <v>-2.901546821111749</v>
+      </c>
+      <c r="M65">
+        <v>-3.8821524156830849</v>
+      </c>
+      <c r="N65">
+        <v>-4.2058172576719279</v>
+      </c>
+      <c r="O65">
+        <v>-2.917636805220857</v>
+      </c>
+      <c r="P65">
+        <v>-4.1095268572993371</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="J66">
+        <v>-0.85923410738513772</v>
+      </c>
+      <c r="K66">
+        <v>-0.85923410738513772</v>
+      </c>
+      <c r="L66">
+        <v>-10.67729323241803</v>
+      </c>
+      <c r="M66">
+        <v>-9.1163304907729295</v>
+      </c>
+      <c r="N66">
+        <v>-9.9273186352267562</v>
+      </c>
+      <c r="O66">
+        <v>-9.6257900867747921</v>
+      </c>
+      <c r="P66">
+        <v>-1.9610651005741939</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="J67">
+        <v>-0.5492570129956087</v>
+      </c>
+      <c r="K67">
+        <v>-0.5492570129956087</v>
+      </c>
+      <c r="L67">
+        <v>-0.43121077852663542</v>
+      </c>
+      <c r="M67">
+        <v>-1.199218608080566</v>
+      </c>
+      <c r="N67">
+        <v>-0.17022596102610521</v>
+      </c>
+      <c r="O67">
+        <v>-0.58926888852135417</v>
+      </c>
+      <c r="P67">
+        <v>3.483296097840761</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="J68">
+        <v>-1.7412716148795799</v>
+      </c>
+      <c r="K68">
+        <v>-1.7412716148795799</v>
+      </c>
+      <c r="L68">
+        <v>-2.4100220397459791</v>
+      </c>
+      <c r="M68">
+        <v>-2.3153502777030308</v>
+      </c>
+      <c r="N68">
+        <v>-2.2629792921349758</v>
+      </c>
+      <c r="O68">
+        <v>-1.9218968965550749</v>
+      </c>
+      <c r="P68">
+        <v>-1.545776600808241</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="J69">
+        <v>-3.71774016166817</v>
+      </c>
+      <c r="K69">
+        <v>-3.71774016166817</v>
+      </c>
+      <c r="L69">
+        <v>-3.6678003652577069</v>
+      </c>
+      <c r="M69">
+        <v>-2.5330680583024492</v>
+      </c>
+      <c r="N69">
+        <v>-2.0025921715715782</v>
+      </c>
+      <c r="O69">
+        <v>-1.123592383259574</v>
+      </c>
+      <c r="P69">
+        <v>-1.4303995255409501</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="J70">
+        <v>-1.195371994804225</v>
+      </c>
+      <c r="K70">
+        <v>-1.195371994804225</v>
+      </c>
+      <c r="L70">
+        <v>-1.1332551124683621</v>
+      </c>
+      <c r="M70">
+        <v>-1.8262741071032369</v>
+      </c>
+      <c r="N70">
+        <v>-1.2973738734027069</v>
+      </c>
+      <c r="O70">
+        <v>-0.85748665380771527</v>
+      </c>
+      <c r="P70">
+        <v>-2.421043365921614</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="J71">
+        <v>-2.0779183986619891</v>
+      </c>
+      <c r="K71">
+        <v>-2.0779183986619891</v>
+      </c>
+      <c r="L71">
+        <v>-2.1939958252745919</v>
+      </c>
+      <c r="M71">
+        <v>-2.213591118313718</v>
+      </c>
+      <c r="N71">
+        <v>-2.1719806216380482</v>
+      </c>
+      <c r="O71">
+        <v>-1.983855292995542</v>
+      </c>
+      <c r="P71">
+        <v>0.2039649167194664</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="J72">
+        <v>-1.9183353758315489</v>
+      </c>
+      <c r="K72">
+        <v>-1.9183353758315489</v>
+      </c>
+      <c r="L72">
+        <v>-71.238666415458297</v>
+      </c>
+      <c r="M72">
+        <v>-60.174791334308267</v>
+      </c>
+      <c r="N72">
+        <v>-62.918982491428828</v>
+      </c>
+      <c r="O72">
+        <v>-68.901491166344755</v>
+      </c>
+      <c r="P72">
+        <v>-14.939880798235411</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="J73">
+        <v>-2.425292855167835</v>
+      </c>
+      <c r="K73">
+        <v>-2.425292855167835</v>
+      </c>
+      <c r="L73">
+        <v>-2.5165054715089128</v>
+      </c>
+      <c r="M73">
+        <v>-2.294655379903674</v>
+      </c>
+      <c r="N73">
+        <v>-1.842920438360788</v>
+      </c>
+      <c r="O73">
+        <v>-2.4760708304011541</v>
+      </c>
+      <c r="P73">
+        <v>-2.4546087875914289</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="J74">
+        <v>-2.005210044177629</v>
+      </c>
+      <c r="K74">
+        <v>-2.005210044177629</v>
+      </c>
+      <c r="L74">
+        <v>-8.2711126110059627</v>
+      </c>
+      <c r="M74">
+        <v>-8.4767417172353579</v>
+      </c>
+      <c r="N74">
+        <v>-9.4430642544631329</v>
+      </c>
+      <c r="O74">
+        <v>-9.5904848049544675</v>
+      </c>
+      <c r="P74">
+        <v>-1.1462104830777189</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75">
+        <v>-2.215648119331076</v>
+      </c>
+      <c r="K75">
+        <v>-2.215648119331076</v>
+      </c>
+      <c r="L75">
+        <v>-1.758085116281819</v>
+      </c>
+      <c r="M75">
+        <v>-2.328619640487072</v>
+      </c>
+      <c r="N75">
+        <v>-1.491554598259683</v>
+      </c>
+      <c r="O75">
+        <v>-1.8119944057613151</v>
+      </c>
+      <c r="P75">
+        <v>1.0059323433495131</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="J76">
+        <v>0.96694359388158679</v>
+      </c>
+      <c r="K76">
+        <v>0.96694359388158679</v>
+      </c>
+      <c r="L76">
+        <v>0.92890042148083163</v>
+      </c>
+      <c r="M76">
+        <v>0.80537405057484335</v>
+      </c>
+      <c r="N76">
+        <v>0.37772308225532458</v>
+      </c>
+      <c r="O76">
+        <v>0.037353275589316198</v>
+      </c>
+      <c r="P76">
+        <v>-0.3797969261193973</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="J77">
+        <v>-2.5815846579641071</v>
+      </c>
+      <c r="K77">
+        <v>-2.5815846579641071</v>
+      </c>
+      <c r="L77">
+        <v>-8.8337387751758722</v>
+      </c>
+      <c r="M77">
+        <v>-7.3810750580393689</v>
+      </c>
+      <c r="N77">
+        <v>-8.7235936418658611</v>
+      </c>
+      <c r="O77">
+        <v>-8.8785449538461148</v>
+      </c>
+      <c r="P77">
+        <v>-10.2525027504636</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="J78">
+        <v>-2.1722318190334269</v>
+      </c>
+      <c r="K78">
+        <v>-2.1722318190334269</v>
+      </c>
+      <c r="L78">
+        <v>-1.7746590493249561</v>
+      </c>
+      <c r="M78">
+        <v>-1.5196984082996401</v>
+      </c>
+      <c r="N78">
+        <v>-1.6823289415082761</v>
+      </c>
+      <c r="O78">
+        <v>-2.754615354389081</v>
+      </c>
+      <c r="P78">
+        <v>0.0077975443015110999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="J79">
+        <v>-2.35790392458697</v>
+      </c>
+      <c r="K79">
+        <v>-2.35790392458697</v>
+      </c>
+      <c r="L79">
+        <v>-2.973920432089463</v>
+      </c>
+      <c r="M79">
+        <v>-2.396003954325447</v>
+      </c>
+      <c r="N79">
+        <v>-2.3937833358619249</v>
+      </c>
+      <c r="O79">
+        <v>-2.5386252000064582</v>
+      </c>
+      <c r="P79">
+        <v>-0.95972851784701096</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="J80">
+        <v>-1.314194719889727</v>
+      </c>
+      <c r="K80">
+        <v>-1.314194719889727</v>
+      </c>
+      <c r="L80">
+        <v>-0.57373250871411841</v>
+      </c>
+      <c r="M80">
+        <v>-0.33659418210045688</v>
+      </c>
+      <c r="N80">
+        <v>0.80983991598267346</v>
+      </c>
+      <c r="O80">
+        <v>0.56689107704220243</v>
+      </c>
+      <c r="P80">
+        <v>0.029178428375190101</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="J81">
+        <v>-2.523962180560658</v>
+      </c>
+      <c r="K81">
+        <v>-2.523962180560658</v>
+      </c>
+      <c r="L81">
+        <v>-1.8745457851722791</v>
+      </c>
+      <c r="M81">
+        <v>-1.5413009540872491</v>
+      </c>
+      <c r="N81">
+        <v>-2.2449490590231411</v>
+      </c>
+      <c r="O81">
+        <v>-2.3361850824045018</v>
+      </c>
+      <c r="P81">
+        <v>-0.62275880076577117</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="J82">
+        <v>-1.7195088178758939</v>
+      </c>
+      <c r="K82">
+        <v>-1.7195088178758939</v>
+      </c>
+      <c r="L82">
+        <v>-1.286395498416077</v>
+      </c>
+      <c r="M82">
+        <v>-1.275792636240056</v>
+      </c>
+      <c r="N82">
+        <v>-1.5717314690631981</v>
+      </c>
+      <c r="O82">
+        <v>-2.2834552115319999</v>
+      </c>
+      <c r="P82">
+        <v>-5.5983765390309461</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="J83">
+        <v>-2.0846276658029121</v>
+      </c>
+      <c r="K83">
+        <v>-2.0846276658029121</v>
+      </c>
+      <c r="L83">
+        <v>-1.7716842561645569</v>
+      </c>
+      <c r="M83">
+        <v>-1.1983899762271391</v>
+      </c>
+      <c r="N83">
+        <v>-1.5722795275954351</v>
+      </c>
+      <c r="O83">
+        <v>-3.2655636184758281</v>
+      </c>
+      <c r="P83">
+        <v>0.2197433658990284</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="J84">
+        <v>-2.4381068487620499</v>
+      </c>
+      <c r="K84">
+        <v>-2.4381068487620499</v>
+      </c>
+      <c r="L84">
+        <v>-0.75015436338690511</v>
+      </c>
+      <c r="M84">
+        <v>-0.58123827237357795</v>
+      </c>
+      <c r="N84">
+        <v>-1.141446254417573</v>
+      </c>
+      <c r="O84">
+        <v>-1.9029899793230349</v>
+      </c>
+      <c r="P84">
+        <v>-3.4409348187463591</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="J85">
+        <v>-1.76747075879007</v>
+      </c>
+      <c r="K85">
+        <v>-1.76747075879007</v>
+      </c>
+      <c r="L85">
+        <v>-7.8938634517768564</v>
+      </c>
+      <c r="M85">
+        <v>-12.05811701745583</v>
+      </c>
+      <c r="N85">
+        <v>-11.375383809129371</v>
+      </c>
+      <c r="O85">
+        <v>-11.08530555903126</v>
+      </c>
+      <c r="P85">
+        <v>-1.4862946975908851</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="J86">
+        <v>-3.5655206417352918</v>
+      </c>
+      <c r="K86">
+        <v>-3.5655206417352918</v>
+      </c>
+      <c r="L86">
+        <v>-5.2511420116365199</v>
+      </c>
+      <c r="M86">
+        <v>-4.775579378259514</v>
+      </c>
+      <c r="N86">
+        <v>-4.5487554848660334</v>
+      </c>
+      <c r="O86">
+        <v>-4.1499933567239307</v>
+      </c>
+      <c r="P86">
+        <v>-1.8883565298744771</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="J87">
+        <v>-4.1426603158985777</v>
+      </c>
+      <c r="K87">
+        <v>-4.1426603158985777</v>
+      </c>
+      <c r="L87">
+        <v>-72.365432450053973</v>
+      </c>
+      <c r="M87">
+        <v>-115.7876516959543</v>
+      </c>
+      <c r="N87">
+        <v>-120.5057866128404</v>
+      </c>
+      <c r="O87">
+        <v>-121.75107229096049</v>
+      </c>
+      <c r="P87">
+        <v>-1.359204858606323</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="J88">
+        <v>-1.9028409126985679</v>
+      </c>
+      <c r="K88">
+        <v>-1.9028409126985679</v>
+      </c>
+      <c r="L88">
+        <v>-1.7851965476142839</v>
+      </c>
+      <c r="M88">
+        <v>-1.352707162981889</v>
+      </c>
+      <c r="N88">
+        <v>-1.510258560904439</v>
+      </c>
+      <c r="O88">
+        <v>-1.8915062762275701</v>
+      </c>
+      <c r="P88">
+        <v>-3.3534793945923251</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="J89">
+        <v>-2.3164188282322509</v>
+      </c>
+      <c r="K89">
+        <v>-2.3164188282322509</v>
+      </c>
+      <c r="L89">
+        <v>-6.9230959926223106</v>
+      </c>
+      <c r="M89">
+        <v>-5.1191217729549248</v>
+      </c>
+      <c r="N89">
+        <v>-5.4219171136912951</v>
+      </c>
+      <c r="O89">
+        <v>-5.318445934140442</v>
+      </c>
+      <c r="P89">
+        <v>-3.756436962958579</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="J90">
+        <v>1.393714944196071</v>
+      </c>
+      <c r="K90">
+        <v>1.393714944196071</v>
+      </c>
+      <c r="L90">
+        <v>-6.2798000037297683</v>
+      </c>
+      <c r="M90">
+        <v>-5.3673417295125159</v>
+      </c>
+      <c r="N90">
+        <v>-6.5874839322228818</v>
+      </c>
+      <c r="O90">
+        <v>-6.6257708941754236</v>
+      </c>
+      <c r="P90">
+        <v>0.74405955875313157</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="J91">
+        <v>-1.4175191853309539</v>
+      </c>
+      <c r="K91">
+        <v>-1.4175191853309539</v>
+      </c>
+      <c r="L91">
+        <v>-1.5972758068548101</v>
+      </c>
+      <c r="M91">
+        <v>-1.3002777625937509</v>
+      </c>
+      <c r="N91">
+        <v>-0.062456608361475902</v>
+      </c>
+      <c r="O91">
+        <v>0.014198109198182599</v>
+      </c>
+      <c r="P91">
+        <v>0.42961079735570462</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="J92">
+        <v>-2.6404683597714471</v>
+      </c>
+      <c r="K92">
+        <v>-2.6404683597714471</v>
+      </c>
+      <c r="L92">
+        <v>-16.00452135796084</v>
+      </c>
+      <c r="M92">
+        <v>-13.201512082908939</v>
+      </c>
+      <c r="N92">
+        <v>-12.59970359330357</v>
+      </c>
+      <c r="O92">
+        <v>-11.954434299046371</v>
+      </c>
+      <c r="P92">
+        <v>-2.2275023789693189</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="J93">
+        <v>-3.3173120487462109</v>
+      </c>
+      <c r="K93">
+        <v>-3.3173120487462109</v>
+      </c>
+      <c r="L93">
+        <v>-2.1547043136855408</v>
+      </c>
+      <c r="M93">
+        <v>-2.1171867216075442</v>
+      </c>
+      <c r="N93">
+        <v>-1.474989052204817</v>
+      </c>
+      <c r="O93">
+        <v>-1.897236304838702</v>
+      </c>
+      <c r="P93">
+        <v>-0.57459464239758706</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="J94">
+        <v>-0.9537083668152263</v>
+      </c>
+      <c r="K94">
+        <v>-0.9537083668152263</v>
+      </c>
+      <c r="L94">
+        <v>-3.3228350765329089</v>
+      </c>
+      <c r="M94">
+        <v>-1.826850370239004</v>
+      </c>
+      <c r="N94">
+        <v>-1.8637767157524081</v>
+      </c>
+      <c r="O94">
+        <v>-1.295821442293027</v>
+      </c>
+      <c r="P94">
+        <v>2.396932372920388</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="J95">
+        <v>-2.3710292086695528</v>
+      </c>
+      <c r="K95">
+        <v>-2.3710292086695528</v>
+      </c>
+      <c r="L95">
+        <v>-3.4138938179736291</v>
+      </c>
+      <c r="M95">
+        <v>-2.2361824272713711</v>
+      </c>
+      <c r="N95">
+        <v>-2.070854663155147</v>
+      </c>
+      <c r="O95">
+        <v>-2.0975313095791361</v>
+      </c>
+      <c r="P95">
+        <v>-0.41049410667383163</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="J96">
+        <v>-3.0947079639528341</v>
+      </c>
+      <c r="K96">
+        <v>-3.0947079639528341</v>
+      </c>
+      <c r="L96">
+        <v>-2.631648110142621</v>
+      </c>
+      <c r="M96">
+        <v>-2.948226786691047</v>
+      </c>
+      <c r="N96">
+        <v>-1.344719406910821</v>
+      </c>
+      <c r="O96">
+        <v>-1.8049650445446459</v>
+      </c>
+      <c r="P96">
+        <v>-1.319917189209453</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="J97">
+        <v>-1.172993336454305</v>
+      </c>
+      <c r="K97">
+        <v>-1.172993336454305</v>
+      </c>
+      <c r="L97">
+        <v>-1.6057639941099979</v>
+      </c>
+      <c r="M97">
+        <v>-1.9239181500722879</v>
+      </c>
+      <c r="N97">
+        <v>-1.647625234134708</v>
+      </c>
+      <c r="O97">
+        <v>-1.7645909951126511</v>
+      </c>
+      <c r="P97">
+        <v>-2.160310292702174</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="J98">
+        <v>-2.3551241068820161</v>
+      </c>
+      <c r="K98">
+        <v>-2.3551241068820161</v>
+      </c>
+      <c r="L98">
+        <v>-4.7813664219840897</v>
+      </c>
+      <c r="M98">
+        <v>-4.4349115083737658</v>
+      </c>
+      <c r="N98">
+        <v>-4.9794960264348687</v>
+      </c>
+      <c r="O98">
+        <v>-5.4635500390385889</v>
+      </c>
+      <c r="P98">
+        <v>-1.6920949007148831</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="J99">
+        <v>-0.80252257108626823</v>
+      </c>
+      <c r="K99">
+        <v>-0.80252257108626823</v>
+      </c>
+      <c r="L99">
+        <v>-1.847829147543973</v>
+      </c>
+      <c r="M99">
+        <v>-1.810416972669507</v>
+      </c>
+      <c r="N99">
+        <v>-0.90405468512188059</v>
+      </c>
+      <c r="O99">
+        <v>-1.140477220681243</v>
+      </c>
+      <c r="P99">
+        <v>-1.10389535412364</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="J100">
+        <v>-3.1321428380689862</v>
+      </c>
+      <c r="K100">
+        <v>-3.1321428380689862</v>
+      </c>
+      <c r="L100">
+        <v>-0.42788695536069349</v>
+      </c>
+      <c r="M100">
+        <v>-1.0167498461854061</v>
+      </c>
+      <c r="N100">
+        <v>-0.52257062390512354</v>
+      </c>
+      <c r="O100">
+        <v>-0.096419023066887793</v>
+      </c>
+      <c r="P100">
+        <v>-1.6367221408193069</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>-2.8833953130804639</v>
+      </c>
+      <c r="K101">
+        <v>-2.8833953130804639</v>
+      </c>
+      <c r="L101">
+        <v>-7.5502082388405407</v>
+      </c>
+      <c r="M101">
+        <v>-5.665163996042283</v>
+      </c>
+      <c r="N101">
+        <v>-5.295189262587316</v>
+      </c>
+      <c r="O101">
+        <v>-5.0037673643917318</v>
+      </c>
+      <c r="P101">
+        <v>-0.76725039500416559</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="J102">
+        <v>-4.331011818914412</v>
+      </c>
+      <c r="K102">
+        <v>-4.331011818914412</v>
+      </c>
+      <c r="L102">
+        <v>-5.389505886846516</v>
+      </c>
+      <c r="M102">
+        <v>-4.5037614388252489</v>
+      </c>
+      <c r="N102">
+        <v>-2.7404936242954281</v>
+      </c>
+      <c r="O102">
+        <v>-2.7930500099693241</v>
+      </c>
+      <c r="P102">
+        <v>0.93518798899646849</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="J103">
+        <v>-1.8528489565408131</v>
+      </c>
+      <c r="K103">
+        <v>-1.8528489565408131</v>
+      </c>
+      <c r="L103">
+        <v>-2.212472070625799</v>
+      </c>
+      <c r="M103">
+        <v>-1.6909497227304791</v>
+      </c>
+      <c r="N103">
+        <v>-1.9475459236986621</v>
+      </c>
+      <c r="O103">
+        <v>-1.778043461645173</v>
+      </c>
+      <c r="P103">
+        <v>-0.1903274791754779</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="J104">
+        <v>-0.53537961578739923</v>
+      </c>
+      <c r="K104">
+        <v>-0.53537961578739923</v>
+      </c>
+      <c r="L104">
+        <v>-0.51975210585802356</v>
+      </c>
+      <c r="M104">
+        <v>-0.66970016980193348</v>
+      </c>
+      <c r="N104">
+        <v>-1.222623224684424</v>
+      </c>
+      <c r="O104">
+        <v>-0.98355251962024948</v>
+      </c>
+      <c r="P104">
+        <v>-0.17342069859248671</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="J105">
+        <v>-3.1080408430324549</v>
+      </c>
+      <c r="K105">
+        <v>-3.1080408430324549</v>
+      </c>
+      <c r="L105">
+        <v>-5.2532696952906601</v>
+      </c>
+      <c r="M105">
+        <v>-4.5661815470838114</v>
+      </c>
+      <c r="N105">
+        <v>-4.8556403038702962</v>
+      </c>
+      <c r="O105">
+        <v>-8.522477406642647</v>
+      </c>
+      <c r="P105">
+        <v>-1.6271298092688089</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="J106">
+        <v>-2.9982490296590649</v>
+      </c>
+      <c r="K106">
+        <v>-2.9982490296590649</v>
+      </c>
+      <c r="L106">
+        <v>-1.838983065259024</v>
+      </c>
+      <c r="M106">
+        <v>-1.5881191123113589</v>
+      </c>
+      <c r="N106">
+        <v>-1.473244317557272</v>
+      </c>
+      <c r="O106">
+        <v>-2.2048939326282611</v>
+      </c>
+      <c r="P106">
+        <v>-1.0980160266918819</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="J107">
+        <v>-4.3954207995759882</v>
+      </c>
+      <c r="K107">
+        <v>-4.3954207995759882</v>
+      </c>
+      <c r="L107">
+        <v>-2.4088958723954441</v>
+      </c>
+      <c r="M107">
+        <v>-2.3144242385018501</v>
+      </c>
+      <c r="N107">
+        <v>-2.0913257893641051</v>
+      </c>
+      <c r="O107">
+        <v>-3.3383214981715179</v>
+      </c>
+      <c r="P107">
+        <v>-2.476457129082962</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="J108">
+        <v>-1.6666247261959359</v>
+      </c>
+      <c r="K108">
+        <v>-1.6666247261959359</v>
+      </c>
+      <c r="L108">
+        <v>-12.23420906634512</v>
+      </c>
+      <c r="M108">
+        <v>-10.999620932140809</v>
+      </c>
+      <c r="N108">
+        <v>-10.716196565711011</v>
+      </c>
+      <c r="O108">
+        <v>-10.04174306329746</v>
+      </c>
+      <c r="P108">
+        <v>-0.72366146868224324</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="J109">
+        <v>-3.1905926348795268</v>
+      </c>
+      <c r="K109">
+        <v>-3.1905926348795268</v>
+      </c>
+      <c r="L109">
+        <v>-3.0742209184574021</v>
+      </c>
+      <c r="M109">
+        <v>-2.761804511211297</v>
+      </c>
+      <c r="N109">
+        <v>-3.182751496099312</v>
+      </c>
+      <c r="O109">
+        <v>-3.0783409707139171</v>
+      </c>
+      <c r="P109">
+        <v>-1.897904485217567</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="J110">
+        <v>-0.97125599529222917</v>
+      </c>
+      <c r="K110">
+        <v>-0.97125599529222917</v>
+      </c>
+      <c r="L110">
+        <v>-4.2620551128859354</v>
+      </c>
+      <c r="M110">
+        <v>-3.5494890792768921</v>
+      </c>
+      <c r="N110">
+        <v>-4.5647166584860486</v>
+      </c>
+      <c r="O110">
+        <v>-4.7198404487200829</v>
+      </c>
+      <c r="P110">
+        <v>-2.808242836067997</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="J111">
+        <v>-2.800296972682319</v>
+      </c>
+      <c r="K111">
+        <v>-2.800296972682319</v>
+      </c>
+      <c r="L111">
+        <v>-25.793180482295341</v>
+      </c>
+      <c r="M111">
+        <v>-21.083797331294289</v>
+      </c>
+      <c r="N111">
+        <v>-20.057119941729759</v>
+      </c>
+      <c r="O111">
+        <v>-19.192781433950739</v>
+      </c>
+      <c r="P111">
+        <v>-5.8742929271365938</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="J112">
+        <v>-1.8560285377604659</v>
+      </c>
+      <c r="K112">
+        <v>-1.8560285377604659</v>
+      </c>
+      <c r="L112">
+        <v>-0.94818386007177546</v>
+      </c>
+      <c r="M112">
+        <v>-0.71613619621239122</v>
+      </c>
+      <c r="N112">
+        <v>-0.96541406026064291</v>
+      </c>
+      <c r="O112">
+        <v>-1.439748988615847</v>
+      </c>
+      <c r="P112">
+        <v>-0.025034209727454799</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="J113">
+        <v>-2.350067494449966</v>
+      </c>
+      <c r="K113">
+        <v>-2.350067494449966</v>
+      </c>
+      <c r="L113">
+        <v>-1.8750870207356869</v>
+      </c>
+      <c r="M113">
+        <v>-1.9454639850064781</v>
+      </c>
+      <c r="N113">
+        <v>-1.6246613553365219</v>
+      </c>
+      <c r="O113">
+        <v>-1.687250374143197</v>
+      </c>
+      <c r="P113">
+        <v>-2.967174712990039</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="J114">
+        <v>-2.2002661061617319</v>
+      </c>
+      <c r="K114">
+        <v>-2.2002661061617319</v>
+      </c>
+      <c r="L114">
+        <v>-2.276148490227349</v>
+      </c>
+      <c r="M114">
+        <v>-1.554747962701019</v>
+      </c>
+      <c r="N114">
+        <v>-0.858381790567742</v>
+      </c>
+      <c r="O114">
+        <v>-0.95733163350369765</v>
+      </c>
+      <c r="P114">
+        <v>-1.910621613555141</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="J115">
+        <v>-3.208443877757603</v>
+      </c>
+      <c r="K115">
+        <v>-3.208443877757603</v>
+      </c>
+      <c r="L115">
+        <v>-2.7023170026895862</v>
+      </c>
+      <c r="M115">
+        <v>-1.9352866374764579</v>
+      </c>
+      <c r="N115">
+        <v>-2.9136802316342139</v>
+      </c>
+      <c r="O115">
+        <v>-3.4608019722082459</v>
+      </c>
+      <c r="P115">
+        <v>-4.2004220385375426</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="J116">
+        <v>-3.3930764366070121</v>
+      </c>
+      <c r="K116">
+        <v>-3.3930764366070121</v>
+      </c>
+      <c r="L116">
+        <v>-2.9122808355879721</v>
+      </c>
+      <c r="M116">
+        <v>-1.610606185189164</v>
+      </c>
+      <c r="N116">
+        <v>-0.41136963890308131</v>
+      </c>
+      <c r="O116">
+        <v>-0.16137511832680429</v>
+      </c>
+      <c r="P116">
+        <v>-0.35529683656260452</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="J117">
+        <v>-3.928527450162044</v>
+      </c>
+      <c r="K117">
+        <v>-3.928527450162044</v>
+      </c>
+      <c r="L117">
+        <v>-3.9493115601670761</v>
+      </c>
+      <c r="M117">
+        <v>-2.987119384203559</v>
+      </c>
+      <c r="N117">
+        <v>-2.730853765680695</v>
+      </c>
+      <c r="O117">
+        <v>-3.6353001131640541</v>
+      </c>
+      <c r="P117">
+        <v>-0.46561573953298901</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="J118">
+        <v>-5.352764912766423</v>
+      </c>
+      <c r="K118">
+        <v>-5.352764912766423</v>
+      </c>
+      <c r="L118">
+        <v>-2.543724837084461</v>
+      </c>
+      <c r="M118">
+        <v>-1.772134376404022</v>
+      </c>
+      <c r="N118">
+        <v>-0.82294374505622947</v>
+      </c>
+      <c r="O118">
+        <v>-0.89125393850533408</v>
+      </c>
+      <c r="P118">
+        <v>0.19536543012075219</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="J119">
+        <v>-3.216405411523894</v>
+      </c>
+      <c r="K119">
+        <v>-3.216405411523894</v>
+      </c>
+      <c r="L119">
+        <v>-1.820042492730588</v>
+      </c>
+      <c r="M119">
+        <v>-1.921885809198836</v>
+      </c>
+      <c r="N119">
+        <v>-1.5650487808214111</v>
+      </c>
+      <c r="O119">
+        <v>-0.94433554855214452</v>
+      </c>
+      <c r="P119">
+        <v>-1.147105553494953</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="J120">
+        <v>-2.8367155914950959</v>
+      </c>
+      <c r="K120">
+        <v>-2.8367155914950959</v>
+      </c>
+      <c r="L120">
+        <v>-2.1448392043918711</v>
+      </c>
+      <c r="M120">
+        <v>-2.3429924117328649</v>
+      </c>
+      <c r="N120">
+        <v>-1.7195836512281779</v>
+      </c>
+      <c r="O120">
+        <v>-1.2923649229463441</v>
+      </c>
+      <c r="P120">
+        <v>-0.58054024747509969</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="J121">
+        <v>-1.9579403127484769</v>
+      </c>
+      <c r="K121">
+        <v>-1.9579403127484769</v>
+      </c>
+      <c r="L121">
+        <v>-4.0054984872730142</v>
+      </c>
+      <c r="M121">
+        <v>-3.4614764397638891</v>
+      </c>
+      <c r="N121">
+        <v>-4.7130400084238842</v>
+      </c>
+      <c r="O121">
+        <v>-4.912808658057342</v>
+      </c>
+      <c r="P121">
+        <v>-1.166072363175545</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="J122">
+        <v>-3.322110653069998</v>
+      </c>
+      <c r="K122">
+        <v>-3.322110653069998</v>
+      </c>
+      <c r="L122">
+        <v>-2.6391925073820341</v>
+      </c>
+      <c r="M122">
+        <v>-2.619433518347785</v>
+      </c>
+      <c r="N122">
+        <v>-2.5444848287950501</v>
+      </c>
+      <c r="O122">
+        <v>-2.021969125736919</v>
+      </c>
+      <c r="P122">
+        <v>-0.80728914382922312</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="J123">
+        <v>-1.6554437824219119</v>
+      </c>
+      <c r="K123">
+        <v>-1.6554437824219119</v>
+      </c>
+      <c r="L123">
+        <v>-1.7554816893753351</v>
+      </c>
+      <c r="M123">
+        <v>-0.84979482367263026</v>
+      </c>
+      <c r="N123">
+        <v>-1.3763901591650349</v>
+      </c>
+      <c r="O123">
+        <v>-2.0284927404166591</v>
+      </c>
+      <c r="P123">
+        <v>-0.89618387535582023</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="J124">
+        <v>-1.37008756517414</v>
+      </c>
+      <c r="K124">
+        <v>-1.37008756517414</v>
+      </c>
+      <c r="L124">
+        <v>-2.4703163326450661</v>
+      </c>
+      <c r="M124">
+        <v>-3.8951688252773811</v>
+      </c>
+      <c r="N124">
+        <v>-4.3549424177741312</v>
+      </c>
+      <c r="O124">
+        <v>-4.2978611193141569</v>
+      </c>
+      <c r="P124">
+        <v>-1.867399310580292</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="J125">
+        <v>-2.9724829175797711</v>
+      </c>
+      <c r="K125">
+        <v>-2.9724829175797711</v>
+      </c>
+      <c r="L125">
+        <v>-3.3394875243904472</v>
+      </c>
+      <c r="M125">
+        <v>-2.8869333938312289</v>
+      </c>
+      <c r="N125">
+        <v>-2.7090394675751481</v>
+      </c>
+      <c r="O125">
+        <v>-3.2386405735209212</v>
+      </c>
+      <c r="P125">
+        <v>-1.1242162940252141</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="J126">
+        <v>-3.4499165958213158</v>
+      </c>
+      <c r="K126">
+        <v>-3.4499165958213158</v>
+      </c>
+      <c r="L126">
+        <v>-0.70613517544520432</v>
+      </c>
+      <c r="M126">
+        <v>-0.96360199392379564</v>
+      </c>
+      <c r="N126">
+        <v>-1.6549674267205361</v>
+      </c>
+      <c r="O126">
+        <v>-1.594825965439</v>
+      </c>
+      <c r="P126">
+        <v>0.97487293867880287</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="J127">
+        <v>-2.4028762709448679</v>
+      </c>
+      <c r="K127">
+        <v>-2.4028762709448679</v>
+      </c>
+      <c r="L127">
+        <v>-3.810472230374454</v>
+      </c>
+      <c r="M127">
+        <v>-3.34409873040835</v>
+      </c>
+      <c r="N127">
+        <v>-3.1188038599588621</v>
+      </c>
+      <c r="O127">
+        <v>-3.2784008648786269</v>
+      </c>
+      <c r="P127">
+        <v>-1.5488632475781019</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="J128">
+        <v>-2.8916523828200722</v>
+      </c>
+      <c r="K128">
+        <v>-2.8916523828200722</v>
+      </c>
+      <c r="L128">
+        <v>-2.767734146555775</v>
+      </c>
+      <c r="M128">
+        <v>-1.3889556123022191</v>
+      </c>
+      <c r="N128">
+        <v>-0.85881538963160786</v>
+      </c>
+      <c r="O128">
+        <v>-1.0638795195281421</v>
+      </c>
+      <c r="P128">
+        <v>-1.752935385769854</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="J129">
+        <v>-3.0369620552749219</v>
+      </c>
+      <c r="K129">
+        <v>-3.0369620552749219</v>
+      </c>
+      <c r="L129">
+        <v>-0.34178702485221413</v>
+      </c>
+      <c r="M129">
+        <v>-0.2264871294019761</v>
+      </c>
+      <c r="N129">
+        <v>0.18970455090749941</v>
+      </c>
+      <c r="O129">
+        <v>0.062218941063909697</v>
+      </c>
+      <c r="P129">
+        <v>-0.87501658051273812</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="J130">
+        <v>-1.2479800141114039</v>
+      </c>
+      <c r="K130">
+        <v>-1.2479800141114039</v>
+      </c>
+      <c r="L130">
+        <v>-2.8833012765890249</v>
+      </c>
+      <c r="M130">
+        <v>-3.2922627729965459</v>
+      </c>
+      <c r="N130">
+        <v>-4.9997122485271497</v>
+      </c>
+      <c r="O130">
+        <v>-5.4929378059561698</v>
+      </c>
+      <c r="P130">
+        <v>-0.78864408304882705</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="J131">
+        <v>-1.416707052970182</v>
+      </c>
+      <c r="K131">
+        <v>-1.416707052970182</v>
+      </c>
+      <c r="L131">
+        <v>-11.89619319037743</v>
+      </c>
+      <c r="M131">
+        <v>-9.832802274067987</v>
+      </c>
+      <c r="N131">
+        <v>-9.541962777271074</v>
+      </c>
+      <c r="O131">
+        <v>-9.0844868490521176</v>
+      </c>
+      <c r="P131">
+        <v>-0.70558788622817847</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="J132">
+        <v>-4.9508650209407952</v>
+      </c>
+      <c r="K132">
+        <v>-4.9508650209407952</v>
+      </c>
+      <c r="L132">
+        <v>-9.9109893459094245</v>
+      </c>
+      <c r="M132">
+        <v>-8.3774399861627593</v>
+      </c>
+      <c r="N132">
+        <v>-7.7998173064501879</v>
+      </c>
+      <c r="O132">
+        <v>-8.1578246799001768</v>
+      </c>
+      <c r="P132">
+        <v>-1.8423581706687051</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="J133">
+        <v>-2.0857843226373101</v>
+      </c>
+      <c r="K133">
+        <v>-2.0857843226373101</v>
+      </c>
+      <c r="L133">
+        <v>0.36882536786942122</v>
+      </c>
+      <c r="M133">
+        <v>0.3522691004851683</v>
+      </c>
+      <c r="N133">
+        <v>-0.0402332245099635</v>
+      </c>
+      <c r="O133">
+        <v>-0.17680125248120371</v>
+      </c>
+      <c r="P133">
+        <v>-1.359999142681692</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="J134">
+        <v>-0.36610895803237598</v>
+      </c>
+      <c r="K134">
+        <v>-0.36610895803237598</v>
+      </c>
+      <c r="L134">
+        <v>-0.25890253368009791</v>
+      </c>
+      <c r="M134">
+        <v>-0.97488302055419129</v>
+      </c>
+      <c r="N134">
+        <v>-1.2482260671730561</v>
+      </c>
+      <c r="O134">
+        <v>-1.23321583057373</v>
+      </c>
+      <c r="P134">
+        <v>1.347881518948252</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="J135">
+        <v>-1.835009686760297</v>
+      </c>
+      <c r="K135">
+        <v>-1.835009686760297</v>
+      </c>
+      <c r="L135">
+        <v>-6.6538038373637027</v>
+      </c>
+      <c r="M135">
+        <v>-5.7487331540282351</v>
+      </c>
+      <c r="N135">
+        <v>-6.8927835615397761</v>
+      </c>
+      <c r="O135">
+        <v>-7.7824536947164216</v>
+      </c>
+      <c r="P135">
+        <v>-0.91882135933454923</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="J136">
+        <v>-1.9285435127629149</v>
+      </c>
+      <c r="K136">
+        <v>-1.9285435127629149</v>
+      </c>
+      <c r="L136">
+        <v>-5.6636113180457439</v>
+      </c>
+      <c r="M136">
+        <v>-5.7963821253632872</v>
+      </c>
+      <c r="N136">
+        <v>-5.1682533916483244</v>
+      </c>
+      <c r="O136">
+        <v>-4.5549796098919693</v>
+      </c>
+      <c r="P136">
+        <v>-0.62918370981456817</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="J137">
+        <v>-1.9306286002569131</v>
+      </c>
+      <c r="K137">
+        <v>-1.9306286002569131</v>
+      </c>
+      <c r="L137">
+        <v>-3.814971428955559</v>
+      </c>
+      <c r="M137">
+        <v>-3.2791229993979911</v>
+      </c>
+      <c r="N137">
+        <v>-3.77144812487425</v>
+      </c>
+      <c r="O137">
+        <v>-3.3432716176907982</v>
+      </c>
+      <c r="P137">
+        <v>-10.28779096094577</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="J138">
+        <v>-2.8549737386919252</v>
+      </c>
+      <c r="K138">
+        <v>-2.8549737386919252</v>
+      </c>
+      <c r="L138">
+        <v>-1.510905937289398</v>
+      </c>
+      <c r="M138">
+        <v>-0.25603057103438431</v>
+      </c>
+      <c r="N138">
+        <v>-1.311509936326982</v>
+      </c>
+      <c r="O138">
+        <v>-1.7184019338040171</v>
+      </c>
+      <c r="P138">
+        <v>-0.22231839770096939</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="J139">
+        <v>-0.45624024755955528</v>
+      </c>
+      <c r="K139">
+        <v>-0.45624024755955528</v>
+      </c>
+      <c r="L139">
+        <v>-0.50812665626615616</v>
+      </c>
+      <c r="M139">
+        <v>0.090857638897288595</v>
+      </c>
+      <c r="N139">
+        <v>0.40203217421571541</v>
+      </c>
+      <c r="O139">
+        <v>0.53194330954587909</v>
+      </c>
+      <c r="P139">
+        <v>0.78185882503363258</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="J140">
+        <v>-5.7285609925892569</v>
+      </c>
+      <c r="K140">
+        <v>-5.7285609925892569</v>
+      </c>
+      <c r="L140">
+        <v>-4.3604682501036507</v>
+      </c>
+      <c r="M140">
+        <v>-4.0841215887542974</v>
+      </c>
+      <c r="N140">
+        <v>-3.1023144731352161</v>
+      </c>
+      <c r="O140">
+        <v>-3.3615063483097338</v>
+      </c>
+      <c r="P140">
+        <v>-0.9943689099767915</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="J141">
+        <v>-2.9616322252529068</v>
+      </c>
+      <c r="K141">
+        <v>-2.9616322252529068</v>
+      </c>
+      <c r="L141">
+        <v>-8.2680624472151063</v>
+      </c>
+      <c r="M141">
+        <v>-7.7019231814018276</v>
+      </c>
+      <c r="N141">
+        <v>-7.2221580514858079</v>
+      </c>
+      <c r="O141">
+        <v>-7.073120145910897</v>
+      </c>
+      <c r="P141">
+        <v>-1.034858706567275</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="J142">
+        <v>-1.8956828056301189</v>
+      </c>
+      <c r="K142">
+        <v>-1.8956828056301189</v>
+      </c>
+      <c r="L142">
+        <v>-1.0331132046107281</v>
+      </c>
+      <c r="M142">
+        <v>-1.187479621678901</v>
+      </c>
+      <c r="N142">
+        <v>-1.664929980508975</v>
+      </c>
+      <c r="O142">
+        <v>-1.3286405124572991</v>
+      </c>
+      <c r="P142">
+        <v>-1.016550068066342</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="J143">
+        <v>-4.3868096913118944</v>
+      </c>
+      <c r="K143">
+        <v>-4.3868096913118944</v>
+      </c>
+      <c r="L143">
+        <v>-1.4767118454108361</v>
+      </c>
+      <c r="M143">
+        <v>-1.15457494329934</v>
+      </c>
+      <c r="N143">
+        <v>-0.40368604351470611</v>
+      </c>
+      <c r="O143">
+        <v>-0.507769375562374</v>
+      </c>
+      <c r="P143">
+        <v>-2.6720115576199648</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="J144">
+        <v>-1.410434891954288</v>
+      </c>
+      <c r="K144">
+        <v>-1.410434891954288</v>
+      </c>
+      <c r="L144">
+        <v>-2.114297238651492</v>
+      </c>
+      <c r="M144">
+        <v>-2.4481638452993342</v>
+      </c>
+      <c r="N144">
+        <v>-2.6056017130496691</v>
+      </c>
+      <c r="O144">
+        <v>-3.3978900817634998</v>
+      </c>
+      <c r="P144">
+        <v>-0.43418460519850433</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="J145">
+        <v>-1.291852912125651</v>
+      </c>
+      <c r="K145">
+        <v>-1.291852912125651</v>
+      </c>
+      <c r="L145">
+        <v>-1.4140172738982499</v>
+      </c>
+      <c r="M145">
+        <v>-0.5472169730066182</v>
+      </c>
+      <c r="N145">
+        <v>-0.54567211241371827</v>
+      </c>
+      <c r="O145">
+        <v>-0.75263706904706362</v>
+      </c>
+      <c r="P145">
+        <v>0.042976737393663103</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="J146">
+        <v>-2.241877757459469</v>
+      </c>
+      <c r="K146">
+        <v>-2.241877757459469</v>
+      </c>
+      <c r="L146">
+        <v>-1.7199501445002441</v>
+      </c>
+      <c r="M146">
+        <v>-1.5714076375236889</v>
+      </c>
+      <c r="N146">
+        <v>-1.6551056749974931</v>
+      </c>
+      <c r="O146">
+        <v>-1.2897407981414619</v>
+      </c>
+      <c r="P146">
+        <v>0.40350498802216361</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="J147">
+        <v>-0.22897928568619089</v>
+      </c>
+      <c r="K147">
+        <v>-0.22897928568619089</v>
+      </c>
+      <c r="L147">
+        <v>-0.28194319913281563</v>
+      </c>
+      <c r="M147">
+        <v>-0.22148778516000761</v>
+      </c>
+      <c r="N147">
+        <v>-0.4738181744483177</v>
+      </c>
+      <c r="O147">
+        <v>-0.78630224954820815</v>
+      </c>
+      <c r="P147">
+        <v>0.059976506701139798</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>